--- a/artifacts/recipes/new_data/allrecipescom/chineese/chineese_pork.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/chineese/chineese_pork.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641529-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Chinese Pork Main Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641533-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -202,59 +543,55 @@
 Chinese Spareribs with Pineapple</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282728/chinese-spareribs-with-pineapple/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Chinese Spareribs with Pineapple</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound pork spareribs\n\n\n5 tablespoons water\n\n\n3 tablespoons white vinegar\n\n\n2 tablespoons white sugar\n\n\n2 tablespoons light soy sauce\n\n\n2 tablespoons dark soy sauce\n\n\n1 tablespoon dry white wine\n\n\n1 (8 ounce) can sliced pineapple"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound pork spareribs\n\n\n5 tablespoons water\n\n\n3 tablespoons white vinegar\n\n\n2 tablespoons white sugar\n\n\n2 tablespoons light soy sauce\n\n\n2 tablespoons dark soy sauce\n\n\n1 tablespoon dry white wine\n\n\n1 (8 ounce) can sliced pineapple'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut ribs into small pieces."},{"recipe_directions":"Heat a medium nonstick pot over medium-high heat. Sear ribs in the hot pot on all sides, about 5 minutes."},{"recipe_directions":"Whisk water, vinegar, sugar, both soy sauces, and wine together in a small bowl. Pour over ribs and reduce heat to medium-low. Add pineapple rings. Let stew until liquid evaporates and ribs are tender, about 1 hour. Don't let all the sauce dry up completely."},{"recipe_directions":"Serve ribs with pineapple rings."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Holidays and Events Recipes"},{"recipe_tags":"Lunar New Year"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"271\nCalories\n\n\n15g \nFat\n\n\n18g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641537-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kXnOLKiLxoq4X6mugGIXXA6mjn0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/102166-52fdabaa9bc3440d973fb677bace9ccf.jpg"
@@ -267,59 +604,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/75579/chinese-dan-bin/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Chinese Dan-Bin</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n7 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 slice bacon\n\n\n1  egg, beaten\n\n\n1 (6 inch) corn tortilla\n\n\n¼ cup sweet corn kernels\n\n\n1 tablespoon smooth salsa"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 slice bacon\n\n\n1  egg, beaten\n\n\n1 (6 inch) corn tortilla\n\n\n¼ cup sweet corn kernels\n\n\n1 tablespoon smooth salsa'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fry the slice of bacon in a skillet over medium-high heat. Set aside. Reduce the heat to medium. Pour the egg into the skillet, and sprinkle with corn. Cook for less than 10 seconds."},{"recipe_directions":"Lay the tortilla over the whole egg. After the egg is firm and attached to the tortilla, flip over, and lay the bacon on top. Put salsa over the bacon, and wrap. Remove from the skillet, cut into small pieces and serve hot."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"216\nCalories\n\n\n10g \nFat\n\n\n21g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641541-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -331,59 +664,55 @@
 Hakka-Style Squid and Pork Belly Stir-Fry</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265491/hakka-style-squid-and-pork-belly-stir-fry/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Hakka-Style Squid and Pork Belly Stir-Fry</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n½ pound pork belly, or more to taste\n\n\n1 (6 ounce) package dried bean curd\n\n\n1  squid\n\n\n1  green bell pepper, chopped\n\n\n1 clove garlic, chopped\n\n\n¼ cup water\n\n\n2 ½ tablespoons soy sauce\n\n\n4 teaspoons cooking wine\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon ground white pepper\n\n\n¾ cup chopped celery\n\n\n1 cup garlic sprouts, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n½ pound pork belly, or more to taste\n\n\n1 (6 ounce) package dried bean curd\n\n\n1  squid\n\n\n1  green bell pepper, chopped\n\n\n1 clove garlic, chopped\n\n\n¼ cup water\n\n\n2 ½ tablespoons soy sauce\n\n\n4 teaspoons cooking wine\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon ground white pepper\n\n\n¾ cup chopped celery\n\n\n1 cup garlic sprouts, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat. Add pork belly and fry until oil is released, 5 to 7 minutes. Add bean curd and fry until it turns yellow, 3 to 5 minutes. Add squid, bell pepper, and garlic; fry another 3 to 5 minutes."},{"recipe_directions":"Add water, soy sauce, and cooking wine to the skillet with the pork belly mixture. Add sugar and white pepper; fry for 3 minutes. Add celery and garlic sprouts; fry until fragrant, about 3 minutes more."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"367\nCalories\n\n\n16g \nFat\n\n\n28g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641548-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5ems0k8ysD6o6G9yllxOa1uLU3w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1876x0:1878x2):format(webp)/9126406-4dacaa48b72c47f88af5a4f1ca0c6f31.jpg"
@@ -396,59 +725,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283708/ants-climbing-a-tree-sichuan-spicy-vermicelli-stir-fry/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Ants Climbing a Tree (Sichuan Spicy Vermicelli Stir-Fry)</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups mung bean vermicelli\n\n\n3 tablespoons vegetable oil\n\n\n½ pound ground pork\n\n\n2 tablespoons dark soy sauce, or more to taste\n\n\n  2 teaspoons Sichuan peppercorn powder\n\n\n½ cup water\n\n\n2 stalks green onions, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mung bean vermicelli\n\n\n3 tablespoons vegetable oil\n\n\n½ pound ground pork\n\n\n2 tablespoons dark soy sauce, or more to taste\n\n\n  2 teaspoons Sichuan peppercorn powder\n\n\n½ cup water\n\n\n2 stalks green onions, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place vermicelli in a bowl and cover with water; soak for at least 15 minutes. Drain and set aside."},{"recipe_directions":"Heat vegetable oil in a large frying pan over medium heat until you can feel the heat above the pan. Put in ground pork; cook and stir until browned and crumbly, 5 to 7 minutes. Stir in 2 tablespoons soy sauce. Stir in peppercorn powder until evenly distributed. Add water and bring to a boil."},{"recipe_directions":"Add drained vermicelli and mix evenly with the pork. Cook until all water has evaporated, about 5 more minutes. Taste and add more soy sauce if not salty enough for you."},{"recipe_directions":"Transfer to a serving plate and top with green onions."},{"recipe_directions":"Mung bean vermicelli noodles are very easy to cook. It is usually ready when all the water is evaporated. Do not leave it in the frying pan for too long."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"454\nCalories\n\n\n18g \nFat\n\n\n61g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641554-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -460,59 +785,55 @@
 Jiaozi (Chinese Pork and Shrimp Dumplings)</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284390/jiaozi-chinese-pork-and-shrimp-dumplings/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Jiaozi (Chinese Pork and Shrimp Dumplings)</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups cold water, divided\n\n\n1 tablespoon cornstarch\n\n\n1 pound fatty ground pork\n\n\n½ pound uncooked medium shrimp - peeled, deveined, and chopped\n\n\n1 head Napa cabbage, finely chopped\n\n\n1 bunch fresh chives, chopped\n\n\n3 stalks green onions, chopped\n\n\n2 tablespoons minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n2 teaspoons dry white wine\n\n\n1 teaspoon soy sauce, or more to taste\n\n\n1 teaspoon sesame oil, or to taste\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups cold water, divided\n\n\n1 tablespoon cornstarch\n\n\n1 pound fatty ground pork\n\n\n½ pound uncooked medium shrimp - peeled, deveined, and chopped\n\n\n1 head Napa cabbage, finely chopped\n\n\n1 bunch fresh chives, chopped\n\n\n3 stalks green onions, chopped\n\n\n2 tablespoons minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n2 teaspoons dry white wine\n\n\n1 teaspoon soy sauce, or more to taste\n\n\n1 teaspoon sesame oil, or to taste\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 1/2 cup cold water and cornstarch in a bowl until combined. Combine the filling: pork, shrimp, cabbage, chives, onions, ginger, garlic, cornstarch paste, wine, soy sauce, sesame oil, salt, and pepper in a large bowl and mix well."},{"recipe_directions":"Mix flour and remaining water and knead the dough into a smooth ball. Use extra water/flour to get a slightly smooth and sticky ball. Let sit for 30 minutes. Divide the dough into little balls that roll out into 4-inch diameter circles. You will have about 30 dough circles."},{"recipe_directions":"Place 2 teaspoons of the filling onto the middle of each of the dough circles."},{"recipe_directions":"Wrap by folding the dough circles with filling in the middle in half and pinching the edges to seal."},{"recipe_directions":"Bring a large pot of salted water to a boil. Gently add about 10 dumplings into the boiling water. Bring the water back to a boil and add 1/2 cup more cold water. Repeat this twice before taking the dumplings out to serve; the pork filling should no longer be pink and shrimp should be firm. Repeat the boiling and adding of cold water with each batch of dumplings. Adding the cold water between boils reduces the starch buildup in the water."},{"recipe_directions":"Use Xiao Xing wine if you can find it."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"279\nCalories\n\n\n10g \nFat\n\n\n28g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641560-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xoVg2gmr0ZWpaGGuERmW78Ohgno=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/289345-f32b1d3cf32a4a198124711b39141eae.jpg"
@@ -525,59 +846,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55990/brandis-wontons/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Brandi's Wontons</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n36 won tons"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups shredded napa cabbage\n\n\n½ pound ground pork\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon dry sherry\n\n\n2 teaspoons cornstarch\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n1  green onion, minced\n\n\n36  wonton wrappers\n\n\n1  egg white, beaten\n\n\n¼ cup soy sauce\n\n\n¼ cup seasoned rice vinegar\n\n\n2 tablespoons finely shredded fresh ginger"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups shredded napa cabbage\n\n\n½ pound ground pork\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon dry sherry\n\n\n2 teaspoons cornstarch\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n1  green onion, minced\n\n\n36  wonton wrappers\n\n\n1  egg white, beaten\n\n\n¼ cup soy sauce\n\n\n¼ cup seasoned rice vinegar\n\n\n2 tablespoons finely shredded fresh ginger'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add napa cabbage and cook uncovered until tender, about 1 minute. Drain in a colander, then immediately immerse in ice water for several minutes until cold to stop the cooking process. Once the napa cabbage is cold, drain well, squeezing out any excess water, and place in a large bowl. Stir in ground pork, 2 tablespoons of soy sauce, sherry, cornstarch, 1 1/2 teaspoon of minced ginger, and green onion."},{"recipe_directions":"Arrange half of the wonton wrappers on a large sheet of waxed paper. Brush each wrapper lightly with the egg white. Place a heaping teaspoon of the pork mixture in the center of each wrapper. Gather all 4 corners of the wonton wrapper and pinch the edges together to seal in the filling. Repeat with remaining wonton wrappers."},{"recipe_directions":"Bring large pot of water to a boil and drop the wontons into the boiling water. When the wontons rise to the surface, continue to cook them one minute longer. Remove with a slotted spoon as they finish cooking and place on a platter."},{"recipe_directions":"Dipping sauce: Mix 1/4 cup soy sauce, seasoned rice vinegar, and 2 tablespoons of shredded fresh ginger in a bowl."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n6g \nFat\n\n\n32g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641572-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Jd3sJJz0Ie1mxPa6E87J6NgI3ug=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4486110-ab0e50cd0edd4dd4a8edc00e1b5294e5.jpg"
@@ -590,59 +907,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257374/taiwanese-ground-pork-and-pickled-cucumbers/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Taiwanese Ground Pork and Pickled Cucumbers</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n17 mins\n\n\nTotal Time:\n32 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon Chinese rice wine\n\n\n1 tablespoon soy sauce paste\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon white sugar\n\n\n3 dashes ground white pepper\n\n\n½ pound ground pork\n\n\n⅓ cup Taiwanese pickled cucumbers with brine, chopped\n\n\n1 tablespoon vegetable oil\n\n\n2 small shallots, thinly sliced\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon minced fresh ginger\n\n\n¼ teaspoon ground star anise\n\n\n1 ½ cups water\n\n\n¼ teaspoon sesame oil\n\n\n2  green onions, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon Chinese rice wine\n\n\n1 tablespoon soy sauce paste\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon white sugar\n\n\n3 dashes ground white pepper\n\n\n½ pound ground pork\n\n\n⅓ cup Taiwanese pickled cucumbers with brine, chopped\n\n\n1 tablespoon vegetable oil\n\n\n2 small shallots, thinly sliced\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon minced fresh ginger\n\n\n¼ teaspoon ground star anise\n\n\n1 ½ cups water\n\n\n¼ teaspoon sesame oil\n\n\n2  green onions, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix rice wine, soy sauce paste, soy sauce, sugar, and white pepper together in a bowl."},{"recipe_directions":"Mix ground pork with brine from cucumbers together in a bowl."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Add shallots; cook and stir until golden brown, about 5 minutes. Add pork mixture; cook and stir until no longer pink, 3 to 4 minutes. Push pork and shallots to the sides of the skillet, making a space in the center. Add garlic, ginger, and star anise; stir."},{"recipe_directions":"Pour water into the skillet; bring to a boil. Reduce heat to medium low; simmer until sauce reduces to about 1 cup. Stir in chopped cucumbers. Stir in rice wine mixture; cook until flavors combine, 4 to 6 minutes."},{"recipe_directions":"Top pork mixture with sesame oil and green onions."},{"recipe_directions":"Substitute 1/8 teaspoon Chinese Five-Spice powder for the ground star anise if desired."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"356\nCalories\n\n\n24g \nFat\n\n\n11g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641577-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xo-XQwmwSf-uDWsUqXz5DEwkxWc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/4513143-b7c407dd186d4db08e4ae981aec21d15.jpg"
@@ -655,59 +968,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257428/char-siu-chinese-barbeque-pork/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Char Siu (Chinese Barbeque Pork)</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n2 days\n\n\nTotal Time:\n2 days 1 hr 25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons honey\n\n\n2 tablespoons Shaoxing cooking wine\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon pureed kiwi\n\n\n1 tablespoon Chinese dark soy sauce\n\n\n1 tablespoon Thai chile sauce\n\n\n2 cloves garlic, grated\n\n\n2 teaspoons oyster sauce\n\n\n½ teaspoon Chinese five-spice powder\n\n\n1 ½ pounds pork belly, skin removed"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons honey\n\n\n2 tablespoons Shaoxing cooking wine\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon pureed kiwi\n\n\n1 tablespoon Chinese dark soy sauce\n\n\n1 tablespoon Thai chile sauce\n\n\n2 cloves garlic, grated\n\n\n2 teaspoons oyster sauce\n\n\n½ teaspoon Chinese five-spice powder\n\n\n1 ½ pounds pork belly, skin removed'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix honey, cooking wine, hoisin sauce, kiwi, dark soy sauce, chile sauce, garlic, oyster sauce, and five-spice powder together in a large resealable plastic bag. Add pork belly. Seal bag, pressing out as much air as possible."},{"recipe_directions":"Place bag on a plate and marinate pork belly in the refrigerator, flipping occasionally, for at least 2 days."},{"recipe_directions":"Preheat oven to 275 degrees F (135 degrees C) with a rack in the upper third of the oven. Set a wire rack on a rimmed baking sheet."},{"recipe_directions":"Place pork belly on the wire rack, reserving marinade."},{"recipe_directions":"Bake pork belly in the preheated oven until the internal temperature reaches 160 degrees F (71 degrees C), about 1 hour. Remove pork belly from the oven; baste with reserved marinade."},{"recipe_directions":"Move oven rack to the top position and preheat the oven's broiler."},{"recipe_directions":"Broil pork until it is dark and glossy and the edges start to blacken, about 5 minutes. Flip and baste on the second side. Continue broiling until second side darkens and starts to blacken, about 5 minutes more. Slice with a sharp knife."},{"recipe_directions":"Substitute maltose for the honey if you can find it."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"355\nCalories\n\n\n24g \nFat\n\n\n13g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641582-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vB_kEK_cacy_VeCJwXAyJ8cybho=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/213117-89c87aad41274225a38f7c4cab4e6e6f.jpg"
@@ -720,59 +1029,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/171931/wonton-soup-without-ginger/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Wonton Soup without Ginger</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon sesame oil\n\n\n1 pound lean ground pork\n\n\n¼ pound diced raw shrimp\n\n\n1  green onion, chopped (Optional)\n\n\n40  wonton wrappers\n\n\n2  green onions (Optional)\n\n\n1  egg, beaten\n\n\n9 cups chicken stock\n\n\n¼ cup soy sauce\n\n\n2 tablespoons sesame oil\n\n\n2 cups chopped bok choy\n\n\n1 cup green onions, chopped (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon sesame oil\n\n\n1 pound lean ground pork\n\n\n¼ pound diced raw shrimp\n\n\n1  green onion, chopped (Optional)\n\n\n40  wonton wrappers\n\n\n2  green onions (Optional)\n\n\n1  egg, beaten\n\n\n9 cups chicken stock\n\n\n¼ cup soy sauce\n\n\n2 tablespoons sesame oil\n\n\n2 cups chopped bok choy\n\n\n1 cup green onions, chopped (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together sugar, cornstarch, oyster sauce, and 1 tablespoon sesame oil in a large bowl; add the ground pork, shrimp, and 1 chopped green onion and mix to combine."},{"recipe_directions":"Lay one wonton skin like a baseball diamond in front of you. Using your finger, brush beaten egg around the outer edge of the wonton skin. Place 1 tablespoon of pork mixture onto the middle of the wonton skin. Fold 'home run' corner to '2nd base' corner and press down creating a triangle. The meat filling lump is at the bottom of the triangle. Brush egg mixtures at the '1st base' and '3rd base' corners of the triangle. Fold each base corner over the meat filling lump and over each other. Brush egg mixture at the '2nd base/homerun' corner of the triangle and fold behind the meat filling lump. This is one wonton. Repeat until there are no more mixture or wrapper skins. Keep the wontons covered with a wet towel to prevent from drying.\""},{"recipe_directions":"Mix together the chicken stock, soy sauce, 2 tablespoons sesame oil, and 2 green onions in a pot over medium-high heat. Bring this to a boil; reduce heat to medium-low and simmer for 15 minutes. Add the bok choy and return to a boil until the bok choy is tender, about 5 minutes."},{"recipe_directions":"Bring a large pot of salted water to a boil; boil wontons for 3 to 5 minutes, stirring occasionally to prevent wontons from sticking to each other or to the edges of the pot."},{"recipe_directions":"Place wontons in a soup bowl and ladle soup over wontons to serve. Garnish with chopped green onions."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n15g \nFat\n\n\n28g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641587-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-wY7N-3WodYeiRDwUjQo_uSv5Gg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4547878-a93244004dbf4eda9fdafae7756788c0.jpg"
@@ -785,59 +1090,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/82675/mabo-dofu/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Mabo Dofu</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon sesame oil\n\n\n1 (1/2 inch) piece fresh ginger, minced\n\n\n1 clove garlic, minced, or more to taste\n\n\n½ pound ground pork\n\n\n2 teaspoons chili bean sauce (toban djan)\n\n\n1 tablespoon soy sauce\n\n\n2 tablespoons sake\n\n\n2 teaspoons oyster sauce\n\n\n1 (12 ounce) package tofu, cut into 1/2-inch squares\n\n\n½ cup water, or more if needed\n\n\n1 small green onion, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon sesame oil\n\n\n1 (1/2 inch) piece fresh ginger, minced\n\n\n1 clove garlic, minced, or more to taste\n\n\n½ pound ground pork\n\n\n2 teaspoons chili bean sauce (toban djan)\n\n\n1 tablespoon soy sauce\n\n\n2 tablespoons sake\n\n\n2 teaspoons oyster sauce\n\n\n1 (12 ounce) package tofu, cut into 1/2-inch squares\n\n\n½ cup water, or more if needed\n\n\n1 small green onion, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the sesame oil in a wok or large skillet over medium-high heat, and cook and stir the ginger and garlic until the garlic just begins to brown, about 30 seconds. Stir in the pork, breaking it up as you stir, and cook and stir until the pork is browned and broken into small pieces. Add the chili bean sauce, soy sauce, sake, and oyster sauce, stir to mix the ingredients together, reduce heat, and let simmer until the mixture thickens slightly, about 3 more minutes."},{"recipe_directions":"Thin the sauce with water as needed (sauce should not be watery) and gently stir in the tofu. Simmer until the tofu is hot and coated with sauce, about 10 minutes, stirring a few more times. Serve sprinkled with chopped green onion."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n20g \nFat\n\n\n3g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641594-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uFim6y2dnNW90C8XITPoD79_Cto=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6528125-7a2463ce0630484080b3bf789765de2a.jpg"
@@ -850,59 +1151,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237281/my-world-famous-pressure-cooker-chinese-ribs/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>My World Famous Pressure Cooker Chinese Ribs</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons paprika\n\n\n1 tablespoon garlic powder\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon salt\n\n\n6 ½ pounds pork ribs\n\n\n2 tablespoons vegetable oil\n\n\n3 cups water\n\n\n¾ cup ketchup\n\n\n¼ cup brown sugar\n\n\n¼ cup Chinese vinegar\n\n\n1 teaspoon Worcestershire sauce"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons paprika\n\n\n1 tablespoon garlic powder\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon salt\n\n\n6 ½ pounds pork ribs\n\n\n2 tablespoons vegetable oil\n\n\n3 cups water\n\n\n¾ cup ketchup\n\n\n¼ cup brown sugar\n\n\n¼ cup Chinese vinegar\n\n\n1 teaspoon Worcestershire sauce'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix paprika, garlic powder, black pepper, and salt in a resealable plastic bag. Place ribs in bag, seal the bag, and shake thoroughly until ribs are completely coated. Remove ribs from bag and discard dry rub."},{"recipe_directions":"Heat oil in a wok over medium-high heat. Cook ribs in hot oil until browned all over, 3 to 4 minutes per side."},{"recipe_directions":"Stir water, ketchup, brown sugar, vinegar, and Worcestershire sauce together in a pressure cooker. Add browned ribs to pressure cooker. Lock the lid onto the pressure cooker, bring the cooker up to pressure, and reduce heat to medium."},{"recipe_directions":"Cook ribs over medium heat for 15 minutes. Remove from heat and release pressure according to manufacturer's directions."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the dry rub ingredients. The actual amount of the rub consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1469\nCalories\n\n\n105g \nFat\n\n\n32g \nCarbs\n\n\n96g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641602-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EfrFcDu0kW7P98iM0lmozP7HJu4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1060634-a7c9618b03344534acfed4426c9cbc2d.jpg"
@@ -915,59 +1212,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/197938/chinese-dandelion-dumplings/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Chinese Dandelion Dumplings</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 10 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 8 hrs\n\n\nServings:\n10 \n\n\nYield:\n100 dumplings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds ground pork\n\n\n2 cups minced dandelion greens\n\n\n3 cups minced napa cabbage\n\n\n½ cup minced bok choy leaves\n\n\n4  green onions, white and light green parts only, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n3 cloves garlic, minced\n\n\n1 (8 ounce) can bamboo shoots, drained and minced\n\n\n3 tablespoons soy sauce\n\n\n1 teaspoon white pepper\n\n\n1 teaspoon kosher salt\n\n\n1 teaspoon white sugar\n\n\n4 teaspoons sesame oil\n\n\n1  egg whites\n\n\n1 tablespoon water\n\n\n100  wonton wrappers\n\n\n½ cup vegetable oil\n\n\n2 teaspoons chili oil, or to taste\n\n\n3 tablespoons hoisin sauce\n\n\n½ cup soy sauce\n\n\n4 teaspoons sesame oil\n\n\n1 teaspoon white sugar\n\n\n3 tablespoons balsamic vinegar\n\n\n1 teaspoon minced fresh ginger root\n\n\n2 tablespoons chopped green onion\n\n\n2 cloves garlic, minced"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds ground pork\n\n\n2 cups minced dandelion greens\n\n\n3 cups minced napa cabbage\n\n\n½ cup minced bok choy leaves\n\n\n4  green onions, white and light green parts only, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n3 cloves garlic, minced\n\n\n1 (8 ounce) can bamboo shoots, drained and minced\n\n\n3 tablespoons soy sauce\n\n\n1 teaspoon white pepper\n\n\n1 teaspoon kosher salt\n\n\n1 teaspoon white sugar\n\n\n4 teaspoons sesame oil\n\n\n1  egg whites\n\n\n1 tablespoon water\n\n\n100  wonton wrappers\n\n\n½ cup vegetable oil\n\n\n2 teaspoons chili oil, or to taste\n\n\n3 tablespoons hoisin sauce\n\n\n½ cup soy sauce\n\n\n4 teaspoons sesame oil\n\n\n1 teaspoon white sugar\n\n\n3 tablespoons balsamic vinegar\n\n\n1 teaspoon minced fresh ginger root\n\n\n2 tablespoons chopped green onion\n\n\n2 cloves garlic, minced'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix pork, dandelion greens, napa cabbage, bok choy, 4 minced green onions, 1 tablespoon of ginger, 3 cloves of garlic, bamboo shoots, 3 tablespoons of soy sauce, white pepper, salt, 1 teaspoon of sugar, and 4 teaspoons of sesame oil. Chill in the refrigerator 6 to 8 hours, or overnight."},{"recipe_directions":"Beat the egg white with the water in a small bowl and set aside. Place 1 tablespoon of the pork mixture into a wonton wrapper, working one at at time. Cover additional wrappers with a moist towel to prevent drying. Brush the edges of the wrapper with the egg white mixture. Fold the wrapper and seal the edges with a moistened fork."},{"recipe_directions":"Spray a large skillet with cooking spray. Heat 2 tablespoons for vegetable oil over medium-high heat. Working in batches, place the dumplings into the skillet, seam side up. Cook until the dumplings brown slightly, 30 seconds to 1 minute. Pour 1/2 cup of water into the skillet and cover. Gently steam the dumplings until the oil and water begin to sizzle, 7 to 8 minutes. Once the water is cooked off, flip the dumplings and continue cooking until the bottom begin to brown, 3 to 5 minutes. Repeat in batches with the remaining dumplings, oil, and water. Serve with dipping sauce."},{"recipe_directions":"To make dipping sauce: Combine chili oil, hoisin sauce, 1/2 cup of soy sauce, 4 teaspoons of sesame oil, 1 teaspoon of sugar, balsamic vinegar, 1 teaspoon of ginger, 2 tablespoons of green onion, and 2 cloves of garlic in a bowl."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"602\nCalories\n\n\n30g \nFat\n\n\n55g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641608-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1dEvkA9y1v7yoc5PJ6eMRPQwErk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4465626-e8089ed8126d4088aeb260de855fe619.jpg"
@@ -980,59 +1273,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246486/grandmas-hong-shau-rou-red-braised-pork/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Grandma's Hong Shau Rou (Red Braised Pork)</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound pork belly, sliced\n\n\n2 tablespoons vegetable oil\n\n\n1 (3 inch) cinnamon stick\n\n\n3  whole star anise\n\n\n¼ cup light soy sauce\n\n\n¼ cup Shaoxing rice wine\n\n\n3 tablespoons dark soy sauce\n\n\n3 tablespoons white sugar, or to taste\n\n\n10 cloves garlic, peeled\n\n\n¼ cup water, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound pork belly, sliced\n\n\n2 tablespoons vegetable oil\n\n\n1 (3 inch) cinnamon stick\n\n\n3  whole star anise\n\n\n¼ cup light soy sauce\n\n\n¼ cup Shaoxing rice wine\n\n\n3 tablespoons dark soy sauce\n\n\n3 tablespoons white sugar, or to taste\n\n\n10 cloves garlic, peeled\n\n\n¼ cup water, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a pot of water to a boil; add pork belly. Cook until pork belly softens, about 5 minutes. Drain and cool pork until easily handled, 5 to 10 minutes. Cut into 2-inch chunks."},{"recipe_directions":"Heat vegetable oil in a large pot over medium-low heat. Add cinnamon stick and star anise; fry until fragrant, about 30 seconds. Stir in pork belly, light soy sauce, Shaoxing wine, dark soy sauce, sugar, and garlic. Reduce heat to very low and simmer, stirring occasionally and adding water if sauce reduces too quickly, until pork is tender, about 50 minutes."},{"recipe_directions":"Increase heat slightly and continue simmering until sauce reduces to a sticky consistency, about 10 minutes. Remove cinnamon stick and star anise; discard."},{"recipe_directions":"Just use a tablespoon of Chinese five-spice powder if you do not have the listed spices. It's just as good. Flash-fry it too."},{"recipe_directions":"Substitute sherry for the Shaoxing rice wine if needed."},{"recipe_directions":"Sometimes I add some hard-boiled eggs at the end of the cooking. My children loved the soy sauce-flavored eggs; they still do."},{"recipe_directions":"This pork dish tastes better the day after it's made due to a continued melding of flavors. Just reheat over low heat or microwave it."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"342\nCalories\n\n\n23g \nFat\n\n\n16g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641612-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_X35EdBLE_jhxOLgZr7hlGzuikg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2300556-5213523b7cdb4d5594fe7bef174f2528.jpg"
@@ -1045,59 +1334,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/99381/ground-pork-cake-with-salty-egg-haam-daan-ju-yoke-beng/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Ground Pork Cake with Salty Egg (Haam Daan Ju Yoke Beng)</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  salted (hard-cooked) duck egg, shelled\n\n\n1 ½ pounds ground pork\n\n\n1  egg\n\n\n1 tablespoon soy sauce\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 tablespoon milk\n\n\n½ head broccoli, cut into florets"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  salted (hard-cooked) duck egg, shelled\n\n\n1 ½ pounds ground pork\n\n\n1  egg\n\n\n1 tablespoon soy sauce\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 tablespoon milk\n\n\n½ head broccoli, cut into florets'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Separate the white of the salted egg from the yolk. Mash the white with a spoon in a small bowl or blend in a food processor. Divide the yolk into four pieces and set aside."},{"recipe_directions":"In a medium heat-proof bowl, mix together the ground pork, salty egg white, regular egg, soy sauce, sugar, salt, pepper and milk using your hands. The milk will make the texture smoother. Let stand for 15 minutes to marinate. In Chinese cooking, this is the best time to prepare the rest of the dishes for the meal and begin cooking rice."},{"recipe_directions":"Take the pieces of salted egg yolk and push them into the pork. Smooth the top of the pork until it is flat and even. Arrange broccoli florets around the outer edge of the meat."},{"recipe_directions":"Place the bowl in a steamer or in a large pot with a couple inches of water in it. Set over medium-low heat. Steam until the meat is browned throughout, about 30 minutes. Serve with rice. The yolk is the most coveted part of the dish. Ration it carefully! It is very salty, so it is best to eat the yolk a tid bit at a time with a larger bite of meat, mixed with a mouthful of rice."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"419\nCalories\n\n\n28g \nFat\n\n\n4g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641617-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XG0NFPyOGNFDq3cy35irdEh1Vmw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Dan-Dan-Noodles-LaDonna-Langwell-4b6a2a01768d4dbd8779da0cd509c89a.jpg"
@@ -1111,59 +1396,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284238/dan-dan-noodles/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Dan Dan Noodles</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package egg noodles\n\n\n2 tablespoons canola oil\n\n\n⅔ cup dry-roasted peanuts\n\n\n6 tablespoons low-sodium soy sauce\n\n\n2 tablespoons sambal oelek (chile paste)\n\n\n2 teaspoons white sugar\n\n\n5 cloves garlic, peeled\n\n\n1 (1 inch) piece fresh ginger, peeled\n\n\n8 ounces ground pork\n\n\n⅛ teaspoon salt\n\n\n1 ¼ cups cucumber - peeled, seeded, and chopped\n\n\n¾ cup thinly sliced green onion\n\n\n⅓ cup chopped fresh cilantro\n\n\n3 tablespoons lime juice"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package egg noodles\n\n\n2 tablespoons canola oil\n\n\n⅔ cup dry-roasted peanuts\n\n\n6 tablespoons low-sodium soy sauce\n\n\n2 tablespoons sambal oelek (chile paste)\n\n\n2 teaspoons white sugar\n\n\n5 cloves garlic, peeled\n\n\n1 (1 inch) piece fresh ginger, peeled\n\n\n8 ounces ground pork\n\n\n⅛ teaspoon salt\n\n\n1 ¼ cups cucumber - peeled, seeded, and chopped\n\n\n¾ cup thinly sliced green onion\n\n\n⅓ cup chopped fresh cilantro\n\n\n3 tablespoons lime juice'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with lightly salted water and bring to a rapid boil. Cook egg noodles at a boil until tender yet firm to the bite, 7 to 9 minutes. Drain in a colander over a bowl, reserving 3/4 cup cooking liquid. Place noodles in a large bowl."},{"recipe_directions":"Heat oil in a large wok over medium-high heat. Add peanuts to pan; saute until fragrant, about 2 minutes. Remove from heat; cool slightly. Combine peanuts, soy sauce, sambal oelek, sugar, garlic, and ginger in a mini food chopper; process until finely ground."},{"recipe_directions":"Cook pork and salt in a wok over medium-high heat until no longer pink, stirring to crumble, about 8 minutes. Add peanut mixture and 3/4 cup cooking liquid to pork; bring to a boil. Cook for 1 minute, stirring frequently. Add pork mixture, cucumber, green onions, cilantro, and lime juice to noodles; toss well. Serve."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"540\nCalories\n\n\n22g \nFat\n\n\n66g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641620-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vpRpVeJFuWnrXXf8Q7Y4wNyH3Ow=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9045172-4c32ead2da004d9d9a28507307fbd7ca.jpg"
@@ -1176,59 +1457,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70830/chinese-steamed-buns-with-barbecued-pork-filling/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Chinese Steamed Buns with Barbecued Pork Filling</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 3 hrs\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n24 \n\n\nYield:\n24 buns"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (.25 ounce) envelope active dry yeast\n\n\n1 cup lukewarm water\n\n\n4 ½ cups all-purpose flour\n\n\n¼ cup white sugar\n\n\n2 tablespoons shortening or vegetable oil\n\n\n½ cup boiling water\n\n\n2 tablespoons sesame oil\n\n\n2 tablespoons vegetable oil\n\n\n1  green onion, thinly sliced\n\n\n1 clove garlic, minced\n\n\n½ pound Asian barbequed pork, cubed\n\n\n2 tablespoons light soy sauce\n\n\n2 tablespoons oyster sauce\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons water"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (.25 ounce) envelope active dry yeast\n\n\n1 cup lukewarm water\n\n\n4 ½ cups all-purpose flour\n\n\n¼ cup white sugar\n\n\n2 tablespoons shortening or vegetable oil\n\n\n½ cup boiling water\n\n\n2 tablespoons sesame oil\n\n\n2 tablespoons vegetable oil\n\n\n1  green onion, thinly sliced\n\n\n1 clove garlic, minced\n\n\n½ pound Asian barbequed pork, cubed\n\n\n2 tablespoons light soy sauce\n\n\n2 tablespoons oyster sauce\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons water'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the warm water in a large bowl, and sprinkle the yeast over the top. Stir in 1 cup of the flour, and mix thoroughly. Cover with a cloth, and let stand until bubbles appear, about 20 minutes."},{"recipe_directions":"Dissolve sugar and shortening in boiling water, and allow to cool to lukewarm. Stir into the yeast mixture along with the remaining flour. When the dough becomes too stiff to stir, turn out onto a lightly floured surface, and knead until smooth, about 10 minutes. Coat a large bowl with sesame oil, and place the dough inside. Turn over to coat, and cover the bowl with a damp cloth. Let rise in a warm place until doubled in size."},{"recipe_directions":"Heat 2 tablespoons of oil in a wok over medium-high heat. Add green onions and garlic, and stir-fry for about 30 seconds. Add pork, and fry for a minute, then stir in the soy sauce, oyster sauce, and sugar. Dissolve cornstarch in 2 tablespoons of water, then stir the mixture into the pork. Cook, stirring constantly until the pork is coated with a thickened glaze. Remove to a bowl, and allow to cool."},{"recipe_directions":"Remove the dough from the bowl, and roll it out into one long log. Slice the log into 1 inch pieces. Flatten each piece into a 3 inch circle using the palm of your hand or a rolling pin. Place 2 tablespoons of the pork filling onto the center of each circle, and gather up the edges around the filling and pinch together to close the bun. Place each bun seam side down onto a square of aluminum foil. Cover with a towel, and let rise for about 1 hour."},{"recipe_directions":"Bring a couple inches of water to boil in a wok. Place a few buns at a time in a steamer, such as a bamboo steamer for a wok, or a fitted steam tray. Cover, and steam buns over briskly boiling water for 10 minutes. Repeat with remaining buns."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"142\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641626-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-CJxMxcIeDTlsGFiDRvljzPFJws=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5288222-3cb4af875e244edabbedf16086b5f870.jpg"
@@ -1241,59 +1518,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246188/sichuan-pork-stir-fry/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sichuan Pork Stir-Fry</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 leaves stem lettuce (celtuce), cut into 1/2-inch pieces\n\n\n1 pinch salt\n\n\n2 teaspoons water\n\n\n1 teaspoon cornstarch\n\n\n½ pound lean pork, cut into 1/2-inch cubes\n\n\n1 teaspoon rice wine (sake)\n\n\n¼ teaspoon salt\n\n\n2 tablespoons chicken stock\n\n\n2 teaspoons soy sauce\n\n\n½ teaspoon Chinese black vinegar\n\n\n½ teaspoon white sugar\n\n\n3 ½ tablespoons vegetable oil\n\n\n1 tablespoon finely chopped pickled red chile peppers\n\n\n2 teaspoons chili bean sauce ((toban djan), such as Lee Kum Kee®)\n\n\n3  spring onions, diced\n\n\n2 cloves garlic, sliced\n\n\n1 (1/2 inch) piece fresh ginger, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 leaves stem lettuce (celtuce), cut into 1/2-inch pieces\n\n\n1 pinch salt\n\n\n2 teaspoons water\n\n\n1 teaspoon cornstarch\n\n\n½ pound lean pork, cut into 1/2-inch cubes\n\n\n1 teaspoon rice wine (sake)\n\n\n¼ teaspoon salt\n\n\n2 tablespoons chicken stock\n\n\n2 teaspoons soy sauce\n\n\n½ teaspoon Chinese black vinegar\n\n\n½ teaspoon white sugar\n\n\n3 ½ tablespoons vegetable oil\n\n\n1 tablespoon finely chopped pickled red chile peppers\n\n\n2 teaspoons chili bean sauce ((toban djan), such as Lee Kum Kee®)\n\n\n3  spring onions, diced\n\n\n2 cloves garlic, sliced\n\n\n1 (1/2 inch) piece fresh ginger, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine stem lettuce and pinch of salt in another bowl."},{"recipe_directions":"Combine water and cornstarch in a small bowl; stir into a smooth paste."},{"recipe_directions":"Transfer half of the cornstarch paste into a larger bowl. Add pork, rice wine, and 1/4 teaspoon salt. Mix well and let marinate, about 5 minutes."},{"recipe_directions":"Whisk remaining cornstarch paste, chicken stock, soy sauce, black vinegar, and sugar in another bowl to make sauce."},{"recipe_directions":"Heat oil in a wok or large skillet over high heat. Add pork with marinade; cook and stir until browned, 3 to 4 minutes. Stir in pickled chile peppers and chili bean sauce; cook until oil turns red, about 1 minute. Add spring onions, garlic, and ginger; cook and stir until fragrant, about 1 minute. Stir in lettuce; saute until tender, 2 to 3 minutes. Pour in sauce and toss until thickened, about 3 minutes."},{"recipe_directions":"Substitute cucumbers for the stem lettuce (celtuce) if desired."},{"recipe_directions":"Substitute water for the chicken stock if desired."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"347\nCalories\n\n\n26g \nFat\n\n\n8g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641634-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1305,59 +1578,55 @@
 Chinese Sweet and Sour Spare Ribs</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257508/chinese-sweet-and-sour-spare-ribs/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Chinese Sweet and Sour Spare Ribs</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n21 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n51 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound pork spare ribs, cut into 1 1/2-inch pieces\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons rice wine, divided\n\n\n¼ teaspoon salt\n\n\n2 cups vegetable oil for frying\n\n\n⅓ cup white sugar\n\n\n¼ cup water\n\n\n2 teaspoons Chinese black vinegar"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound pork spare ribs, cut into 1 1/2-inch pieces\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons rice wine, divided\n\n\n¼ teaspoon salt\n\n\n2 cups vegetable oil for frying\n\n\n⅓ cup white sugar\n\n\n¼ cup water\n\n\n2 teaspoons Chinese black vinegar'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine pork ribs, soy sauce, 1 teaspoon rice wine, and salt in a large bowl. Marinate in the refrigerator for 20 minutes."},{"recipe_directions":"Heat oil in a wok or deep saucepan over medium-high heat. Cook ribs in the hot oil until golden brown and no longer pink in the center, about 10 minutes."},{"recipe_directions":"Bring remaining 1 teaspoon rice wine, sugar, and water to a boil in a saucepan. Stir in ribs; reduce heat and simmer until flavors combine, about 5 minutes. Stir in black vinegar. Increase heat to high; cook and stir until sauce thickens and coats the ribs, 1 to 2 minutes."},{"recipe_directions":"Black vinegar is a dark vinegar made of glutinous rice and malt, popular in Chinese cuisine. You may find it in Asian shops or online. In a pinch, use malt vinegar."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"367\nCalories\n\n\n26g \nFat\n\n\n18g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641639-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tCiEV2puWYZezWdX9aTlrPABmnU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/976656-baabbb03b60e4cc8b6b6540b36cf4a04.jpg"
@@ -1370,59 +1639,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17401/cantonese-style-pork-and-shrimp-dumplings/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Cantonese Style Pork and Shrimp Dumplings</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10 \n\n\nYield:\n40 dumplings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ pound ground pork\n\n\n1 cup chopped watercress\n\n\n½ (8 ounce) can water chestnuts, drained and chopped\n\n\n¼ cup chopped green onions\n\n\n1 tablespoon oyster sauce\n\n\n1 ½ tablespoons sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n1 (16 ounce) package round dumpling skins\n\n\n1 pound peeled and deveined medium shrimp"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ pound ground pork\n\n\n1 cup chopped watercress\n\n\n½ (8 ounce) can water chestnuts, drained and chopped\n\n\n¼ cup chopped green onions\n\n\n1 tablespoon oyster sauce\n\n\n1 ½ tablespoons sesame oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon soy sauce\n\n\n⅛ teaspoon ground white pepper\n\n\n⅛ teaspoon salt\n\n\n1 (16 ounce) package round dumpling skins\n\n\n1 pound peeled and deveined medium shrimp'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine the pork, watercress, water chestnuts, green onion, oyster sauce, sesame oil, garlic, soy sauce, ground white pepper and salt and mix together well."},{"recipe_directions":"Place 1/2 teaspoonful of this filling onto each dumpling skin. Place 1 shrimp on the filling, slightly wet the edge of the dumpling skin, fold over and pinch with your fingers to form a seal all the way around."},{"recipe_directions":"To cook: Pan fry the dumplings in a large skillet over medium heat with oil for 15 minutes, turning over halfway through OR Place them in a pot of boiling water for 10 minutes; drain and serve in hot chicken broth."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n6g \nFat\n\n\n28g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641645-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8gnCFliSWiPO7wB0GcfpYez9B-w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1959658-13282787dd14472db767abe22eb73e3c.jpg"
@@ -1435,59 +1700,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239153/hunan-peppered-pork/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Hunan Peppered Pork</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons vegetable oil, or more as needed, divided\n\n\n2 cloves garlic, crushed\n\n\n1 ounce fresh ginger, minced\n\n\n1 pound pork tenderloin, sliced into thin strips, or to taste\n\n\n3  hot long green chile peppers, sliced into thin strips, or more to taste\n\n\n  salt to taste\n\n\n2 teaspoons soy sauce, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons vegetable oil, or more as needed, divided\n\n\n2 cloves garlic, crushed\n\n\n1 ounce fresh ginger, minced\n\n\n1 pound pork tenderloin, sliced into thin strips, or to taste\n\n\n3  hot long green chile peppers, sliced into thin strips, or more to taste\n\n\n  salt to taste\n\n\n2 teaspoons soy sauce, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 tablespoon oil in a wok or large skillet over medium-high heat until smoking; saute garlic and ginger until fragrant, 30 seconds to 1 minute. Add pork to wok; cook and stir until cooked through, 5 to 7 minutes. Transfer pork to a plate."},{"recipe_directions":"Pour remaining 2 tablespoons oil into the same wok over medium-high heat; saute chile peppers until well-coated with oil and fragrant, about 2 minutes. Add pork to chile peppers and generously season with salt. Cook and stir mixture until peppers are tender, 5 to 7 minutes more. Mix enough soy sauce into pork mixture to add color and taste for desired saltiness."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"198\nCalories\n\n\n13g \nFat\n\n\n4g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641654-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pitwvrUiNkiUW7O8rOzbod5Hyh0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5330348-39fc53ce0a2547198df1f4cb5ff73d91.jpg"
@@ -1500,59 +1761,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76692/singaporean-tender-pork-spare-ribs/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Singaporean Tender Pork Spare Ribs</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 50 mins\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons light soy sauce\n\n\n4 tablespoons dark soy sauce\n\n\n1 tablespoon crushed black peppercorns\n\n\n6 cloves garlic, peeled and crushed\n\n\n10 fluid ounces orange juice, divided\n\n\n1 ½ pounds pork spareribs\n\n\n1 cup orange juice\n\n\n1 cup water\n\n\n5  sticks cinnamon\n\n\n7  star anise\n\n\n  white sugar to taste\n\n\n  peanut or corn oil for frying\n\n\n3  hard-cooked eggs, peeled (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons light soy sauce\n\n\n4 tablespoons dark soy sauce\n\n\n1 tablespoon crushed black peppercorns\n\n\n6 cloves garlic, peeled and crushed\n\n\n10 fluid ounces orange juice, divided\n\n\n1 ½ pounds pork spareribs\n\n\n1 cup orange juice\n\n\n1 cup water\n\n\n5  sticks cinnamon\n\n\n7  star anise\n\n\n  white sugar to taste\n\n\n  peanut or corn oil for frying\n\n\n3  hard-cooked eggs, peeled (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, stir together light and dark soy sauces, crushed peppercorns, garlic, and 2 tablespoons orange juice. Separate ribs between each bone into individual ribs, and place in the marinade. Cover, and set aside for at least 30 minutes. (If marinating much longer than 30 minutes, refrigerate.)"},{"recipe_directions":"Transfer marinade to a large stockpot, and set ribs aside. To the stockpot add remaining 1 cup orange juice, water, cinnamon sticks, star anise, and sugar. Bring to a boil."},{"recipe_directions":"Meanwhile, heat oil in a large skillet over high heat. Carefully place ribs in oil, and fry for 2 minutes per side, or until edges are sealed. Transfer to the stockpot, and boil, uncovered, for 15 minutes. Cover, and simmer for 1 hour, adding hard boiled eggs at this point, if using."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"693\nCalories\n\n\n54g \nFat\n\n\n25g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641664-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/b-Va3b_rPE-Yro_0TaFVweBdiIk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(736x0:738x2):format(webp)/9368866-957614917b7e40ab81b63b63afe50e16.jpg"
@@ -1565,59 +1822,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265694/sweet-and-sour-lychee-pork/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sweet and Sour Lychee Pork</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  egg yolk\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon rice wine\n\n\n1 teaspoon cornstarch\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground Sichuan peppercorns\n\n\n5 ounces pork tenderloin, trimmed of fat and cut into 1-inch cubes"},{"recipe_ingredients":"2 tablespoons white vinegar\n\n\n2 tablespoons water\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons tomato paste\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon cornstarch"},{"recipe_ingredients":"oil for frying\n\n\n3 tablespoons cornstarch\n\n\n1 tablespoon vegetable oil\n\n\n2  green chile peppers, cut into 1-inch pieces, or more to taste\n\n\n2  scallions, cut into 1-inch pieces\n\n\n3 ounces canned lychees, drained\n\n\n¼ teaspoon sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg yolk\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon rice wine\n\n\n1 teaspoon cornstarch\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground Sichuan peppercorns\n\n\n5 ounces pork tenderloin, trimmed of fat and cut into 1-inch cubes'}, {'recipe_ingredients': '2 tablespoons white vinegar\n\n\n2 tablespoons water\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons tomato paste\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon cornstarch'}, {'recipe_ingredients': 'oil for frying\n\n\n3 tablespoons cornstarch\n\n\n1 tablespoon vegetable oil\n\n\n2  green chile peppers, cut into 1-inch pieces, or more to taste\n\n\n2  scallions, cut into 1-inch pieces\n\n\n3 ounces canned lychees, drained\n\n\n¼ teaspoon sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine egg yolk, soy sauce, rice wine, cornstarch, salt, and Sichuan peppercorns in a bowl to make the marinade. Add pork; marinate for at least 30 minutes."},{"recipe_directions":"Mix vinegar, water, sugar, tomato paste, soy sauce, and cornstarch together to make the seasoning sauce."},{"recipe_directions":"Heat oil in a deep saucepan over medium-high heat. Roll the marinated pork in cornstarch until each piece is well covered. Deep-fry pork for 2 minutes. Remove and drain on paper towels."},{"recipe_directions":"Heat 1 tablespoon oil in a small saucepan over medium heat. Stir-fry green peppers and scallions for 30 seconds. Add lychees and pour in the seasoning sauce. Stir well until sauce thickens. Leave over very low heat."},{"recipe_directions":"Reheat the deep-frying oil. Re-fry pork until crisp, about 30 seconds. Drain and place on a warm plate. Pour the seasoning sauce on top. Sprinkle with sesame oil and serve at once."},{"recipe_directions":"Use any lean pork you prefer."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount of marinade consumed will vary."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"441\nCalories\n\n\n24g \nFat\n\n\n41g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641672-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Zu9dv_grJwKzRzOd98Al7WbUW_8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4481647-ae72a767b9234c3fa1f2ef902b477d02.jpg"
@@ -1630,59 +1883,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257221/authentic-sweet-and-sour-pork/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Authentic Sweet and Sour Pork</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces pork loin\n\n\n1 teaspoon rice wine\n\n\n⅔ teaspoon salt, divided\n\n\n1 pinch monosodium glutamate (MSG)\n\n\n½ cup chicken stock\n\n\n¼ cup cornstarch, divided\n\n\n2 ½ tablespoons white sugar\n\n\n2 tablespoons vinegar\n\n\n⅔ teaspoon soy sauce\n\n\n2  eggs\n\n\n1 ¼ cups vegetable oil for frying\n\n\n3 cloves garlic, minced\n\n\n1 (3/4 inch thick) slice ginger, minced\n\n\n4  spring onions, finely chopped"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces pork loin\n\n\n1 teaspoon rice wine\n\n\n⅔ teaspoon salt, divided\n\n\n1 pinch monosodium glutamate (MSG)\n\n\n½ cup chicken stock\n\n\n¼ cup cornstarch, divided\n\n\n2 ½ tablespoons white sugar\n\n\n2 tablespoons vinegar\n\n\n⅔ teaspoon soy sauce\n\n\n2  eggs\n\n\n1 ¼ cups vegetable oil for frying\n\n\n3 cloves garlic, minced\n\n\n1 (3/4 inch thick) slice ginger, minced\n\n\n4  spring onions, finely chopped'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pound pork to 1/3-inch thickness using a meat mallet. Slice into 1 1/2-inch strips."},{"recipe_directions":"Combine pork strips, rice wine, 1/3 teaspoon salt, and monosodium glutamate in a bowl. Marinate in the refrigerator for 30 minutes."},{"recipe_directions":"Mix remaining 1/3 teaspoon salt, chicken stock, 1 tablespoon cornstarch, sugar, vinegar, and soy sauce in a bowl to make sauce."},{"recipe_directions":"Beat eggs with remaining 3 tablespoons cornstarch in a bowl until smooth. Add pork strips; stir to coat."},{"recipe_directions":"Heat oil in a wok or large saucepan to 280 degrees F (140 degrees C). Add pork strips one at a time to the hot oil. Cook until lightly golden, about 2 minutes. Transfer to a paper towel-lined plate with a slotted spoon."},{"recipe_directions":"Heat oil to 340 degrees F (170 degrees C). Return pork to the hot oil. Cook until golden brown, about 2 minutes. Transfer to a serving plate with the slotted spoon."},{"recipe_directions":"Drain all but 2 tablespoons oil from the wok. Cook and stir garlic and ginger in the hot oil until fragrant, about 30 seconds. Add sauce and spring onions; cook and stir until sauce begins to thicken, 4 to 5 minutes. Pour sauce over the pork on the serving plate."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"435\nCalories\n\n\n21g \nFat\n\n\n35g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641679-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/S0bKTzLiIX_Bx6EYLXmz7Q4-dtU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/4521317-ae249362092444ab9aae65240fea8fba.jpg"
@@ -1695,59 +1944,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258246/easy-moo-shu-pork/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Easy Moo Shu Pork</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons soy sauce\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon grated fresh ginger \n\n\n1 teaspoon minced garlic\n\n\n¾ pound pork tenderloin, fat trimmed and pork cut into 1/4-inch strips\n\n\n2 tablespoons vegetable oil\n\n\n2 cups shredded napa cabbage\n\n\n1  carrot, grated\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons soy sauce\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon grated fresh ginger \n\n\n1 teaspoon minced garlic\n\n\n¾ pound pork tenderloin, fat trimmed and pork cut into 1/4-inch strips\n\n\n2 tablespoons vegetable oil\n\n\n2 cups shredded napa cabbage\n\n\n1  carrot, grated\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix soy sauce, sesame oil, ginger, and garlic in a bowl until marinade is smooth; pour into a resealable plastic bag. Add pork, coat with the marinade, squeeze out excess air, and seal the bag. Marinate in the refrigerator, 1 hour to overnight."},{"recipe_directions":"Heat vegetable oil in a wok or large skillet over medium heat. Add cabbage and carrot; cook and stir for 1 to 2 minutes. Push cabbage mixture aside and add pork with marinade to middle of the skillet. Cook and stir until pork is cooked through, 3 to 4 minutes. Draw cabbage into the center of the skillet; cook and stir for 1 to 2 minutes. Season with salt and pepper."},{"recipe_directions":"You can marinate the pork for 1 hour, or overnight."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"118\nCalories\n\n\n8g \nFat\n\n\n2g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641685-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Q9SEQx-S8Brj33lc8c_4Re5oSoQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/666784-1ed1ca5c0a974b118f5f47ecc0208555.jpg"
@@ -1760,59 +2005,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/175631/mu-shu-pork/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Mu Shu Pork</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons soy sauce\n\n\n2 tablespoons white wine\n\n\n1 teaspoon sesame oil\n\n\n2 teaspoons cornstarch\n\n\n1 pound pork tenderloin, cut into thin strips\n\n\n1 ¾ ounces dried shiitake mushrooms\n\n\n½ cup sliced green onions\n\n\n3 tablespoons minced garlic\n\n\n2 tablespoons peeled and minced fresh ginger\n\n\n1 head napa cabbage\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons white wine\n\n\n½ teaspoon cornstarch\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon ground black pepper\n\n\n1 tablespoon vegetable oil, plus more if needed\n\n\n1 teaspoon sesame oil\n\n\n2  large eggs, beaten\n\n\n2 tablespoons white wine\n\n\n1 cup hoisin sauce\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon sesame oil\n\n\n16  frozen Chinese moo shu pancakes, thawed and warmed"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons soy sauce\n\n\n2 tablespoons white wine\n\n\n1 teaspoon sesame oil\n\n\n2 teaspoons cornstarch\n\n\n1 pound pork tenderloin, cut into thin strips\n\n\n1 ¾ ounces dried shiitake mushrooms\n\n\n½ cup sliced green onions\n\n\n3 tablespoons minced garlic\n\n\n2 tablespoons peeled and minced fresh ginger\n\n\n1 head napa cabbage\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons white wine\n\n\n½ teaspoon cornstarch\n\n\n½ teaspoon white sugar\n\n\n¼ teaspoon ground black pepper\n\n\n1 tablespoon vegetable oil, plus more if needed\n\n\n1 teaspoon sesame oil\n\n\n2  large eggs, beaten\n\n\n2 tablespoons white wine\n\n\n1 cup hoisin sauce\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon sesame oil\n\n\n16  frozen Chinese moo shu pancakes, thawed and warmed'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 2 tablespoons of soy sauce, 2 tablespoons of white wine, 1 teaspoon of sesame oil, and 2 teaspoons of cornstarch in a non-reactive bowl, and stir until smooth. Stir the pork strips into the marinade until thoroughly coated, and refrigerate for 1 hour."},{"recipe_directions":"Pour hot water over the shiitake mushrooms in a bowl, and allow to soften for 15 to 20 minutes. Drain, pat dry, remove any hard stem pieces, and finely chop the mushrooms. Combine the mushrooms, green onions, garlic, and ginger in a bowl, and set aside."},{"recipe_directions":"Remove the leaves from the Napa cabbage, and tear the green leafy portions from the central stalks of the leaves. Slice the stalks the long way into thin slices, then cut them into 1-inch pieces. Finely chop the green leafy portions, and set aside the sliced stems and chopped leaves in separate bowls."},{"recipe_directions":"In a small bowl, stir together 3 tablespoons of soy sauce, 3 tablespoons of white wine, 1/2 teaspoon of cornstarch, sugar, and ground black pepper. Set the mixture aside."},{"recipe_directions":"Heat vegetable oil and 1 teaspoon of sesame oil in a wok over medium-high heat, and cook and stir the marinated pork until cooked through, no longer pink, and the edges have begun to brown, about 5 minutes. Remove the pork to a bowl."},{"recipe_directions":"Pour the beaten eggs into the hot wok, adding more vegetable oil if necessary, and cook and stir until the eggs are scrambled, firm, and well-broken up, about 2 minutes. Stir in the mushroom mixture, and cook and stir 1 to 2 minutes; then stir in the Napa cabbage stem pieces. Cook and stir until the stem pieces are hot but still crunchy, about 1 minute, and then add the chopped cabbage leaves. Pour in 2 tablespoons of white wine, cook and stir the mixture until hot, about 1 more minute, then mix in the cooked pork and the reserved cornstarch mixture. Stir everything together until slightly thickened and hot, about 2 minutes."},{"recipe_directions":"Mix the hoisin sauce, 1 tablespoon of soy sauce, and 1 teaspoon of sesame oil in a small bowl until thoroughly combined. To serve, spread about 1 tablespoon of hoisin mixture on each pancake, top with about 1/2 cup of the pork mixture, roll, and serve."},{"recipe_directions":"Look for frozen thin Chinese pancakes (sometimes called Mandarin pancakes, duck pancakes, or moo shu pancakes) at Asian grocery stores, or substitute small flour tortillas."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"355\nCalories\n\n\n8g \nFat\n\n\n53g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641690-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vx8DfBoPrtsi6PAGPUkstWCtX4s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7107994-79d527076c5a4e5cb79ca4a963f51043.jpg"
@@ -1825,59 +2066,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276226/lazy-pork-dumplings/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Lazy Pork Dumplings</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n64 \n\n\nYield:\n64 dumplings"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour, or more as needed\n\n\n¾ cup warm water\n\n\n½ teaspoon kosher salt"},{"recipe_ingredients":"2 pounds ground pork\n\n\n8 cloves garlic, minced\n\n\n2 tablespoons grated fresh ginger \n\n\n⅔ cup thinly sliced green onions\n\n\n½ cup thinly sliced chives\n\n\n4 teaspoons kosher salt\n\n\n1 teaspoon freshly ground black pepper\n\n\n2 teaspoons gochugaru (Korean red pepper flakes) (Optional)\n\n\n2 tablespoons soy sauce (Optional)\n\n\n2 teaspoons sesame oil"},{"recipe_ingredients":"⅓ cup seasoned rice vinegar (Optional)\n\n\n3 tablespoons soy sauce, or to taste (Optional)\n\n\n1 teaspoon gochugaru (Korean red pepper flakes) (Optional)\n\n\n4 cups chicken broth (Optional)\n\n\n1 teaspoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour, or more as needed\n\n\n¾ cup warm water\n\n\n½ teaspoon kosher salt'}, {'recipe_ingredients': '2 pounds ground pork\n\n\n8 cloves garlic, minced\n\n\n2 tablespoons grated fresh ginger \n\n\n⅔ cup thinly sliced green onions\n\n\n½ cup thinly sliced chives\n\n\n4 teaspoons kosher salt\n\n\n1 teaspoon freshly ground black pepper\n\n\n2 teaspoons gochugaru (Korean red pepper flakes) (Optional)\n\n\n2 tablespoons soy sauce (Optional)\n\n\n2 teaspoons sesame oil'}, {'recipe_ingredients': '⅓ cup seasoned rice vinegar (Optional)\n\n\n3 tablespoons soy sauce, or to taste (Optional)\n\n\n1 teaspoon gochugaru (Korean red pepper flakes) (Optional)\n\n\n4 cups chicken broth (Optional)\n\n\n1 teaspoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine flour, salt, and water in a bowl. Mix with a wooden spoon until dough comes together in a sticky ball. Sprinkle in more flour and knead by hand, adding more flour as needed, until soft and supple. Wrap in plastic and let rest at room temperature for 1 hour."},{"recipe_directions":"Combine ground pork, garlic, ginger, green onions, and chives in bowl. Season with salt, pepper, gochugaru, soy sauce, and sesame oil. Mix together using two forks just until combined. Cover with plastic wrap and refrigerate until ready to use."},{"recipe_directions":"Mix vinegar, soy sauce, and gochugaru into the chicken broth and set aside."},{"recipe_directions":"Divide dough into 4 pieces. Roll one piece into a rope about the thickness of your thumb. Using a rolling pin, flatten into a long, thin band about 3 inches wide, flouring only as needed. Dust the top with flour and flip over. Dip your fingers in some water and lightly brush the surface until slightly sticky."},{"recipe_directions":"Use moistened fingers to line about 1/4 of the pork filling across the dough. Fold dough over the whole length, pressing it down over the meat. Trim off excess dough if desired. Dust a little more flour on top and roll over so seam side is on the bottom. Divide into 16 pieces using the edge of your hand, then a bench scraper to cut. Repeat with remaining dough and filling."},{"recipe_directions":"Heat oil in a pan over high heat. Cook dumplings in batches, seam-side up, until golden brown, 1 to 2 minutes per side. Pour in a portion of the broth and bring to a boil. Cover and continue to boil until pork is no longer pink, about 3 minutes. Pour dumplings with broth into serving bowls."},{"recipe_directions":"You can substitute 1 teaspoon fine salt for the kosher salt."},{"recipe_directions":"If you're going to freeze these for future use, be sure to do that while they're sitting on a lightly floured tray. Then, once frozen, you can transfer them into zip-top bags."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"50\nCalories\n\n\n2g \nFat\n\n\n4g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641695-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NbO1UbxOOPazEBUB8NKQDUhrloc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/164920-978b7f8627794eb2b796aa77afe87f3d.jpg"
@@ -1890,59 +2127,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24539/cantonese-barbecued-pork/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Cantonese Barbecued Pork</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n6 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 6 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons dry sherry\n\n\n2 slices fresh ginger root\n\n\n1 tablespoon oyster sauce\n\n\n½ teaspoon Chinese five-spice powder\n\n\n4 ½ teaspoons soy sauce\n\n\n1 tablespoon white sugar\n\n\n2 tablespoons hoisin sauce\n\n\n2 tablespoons ketchup\n\n\n½ teaspoon ground cinnamon\n\n\n1 ½ pounds pork shoulder roast \n\n\n1 tablespoon honey"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons dry sherry\n\n\n2 slices fresh ginger root\n\n\n1 tablespoon oyster sauce\n\n\n½ teaspoon Chinese five-spice powder\n\n\n4 ½ teaspoons soy sauce\n\n\n1 tablespoon white sugar\n\n\n2 tablespoons hoisin sauce\n\n\n2 tablespoons ketchup\n\n\n½ teaspoon ground cinnamon\n\n\n1 ½ pounds pork shoulder roast \n\n\n1 tablespoon honey'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In bowl, stir together sherry, ginger root, oyster sauce, five-spice powder, soy sauce, white sugar, sugar, hoisin sauce, ketchup and cinnamon."},{"recipe_directions":"Cut pork into 5x2 inch strips. Place strips flat in a shallow baking dish. Pour marinade over pork strips. Let pork marinate at least 6 hours in refrigerator."},{"recipe_directions":"Drain, reserving marinade. Mix honey and 3 tablespoon reserved marinade in a small bowl; set aside. Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Fill a shallow roasting pan with water and place in bottom of oven. Carefully place pork strips on a roasting rack above roasting pan so all sides are exposed to heat. If you don't have a roasting rack, insert the curved end of an S-shaped hook, paper clip, or drapery hook in pork strips and hang them from the top shelf."},{"recipe_directions":"Roast for 30 minutes. Baste pork strips with honey mixture. Roast 15 minutes and baste again. Roast 10 minutes longer or until pork strips are crisp and golden brown. Remove from oven and let cool."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"158\nCalories\n\n\n7g \nFat\n\n\n10g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641700-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UeNGYCBOn_1z1U0wzZOWVBNybYg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/658240-353ff8f5240e42f8a9ea1f2e090b56a8.jpg"
@@ -1955,59 +2188,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218104/dong-po-chinese-pork-belly/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Dong Po (Chinese Pork Belly)</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound raw pork belly\n\n\n3 tablespoons vegetable oil\n\n\n¼ cup light soy sauce\n\n\n¼ cup dark soy sauce\n\n\n½ cup Chinese rice cooking wine\n\n\n3 ½ ounces Chinese rock sugar\n\n\n1 (1 inch) piece fresh ginger, peeled and grated\n\n\n8 spring onions, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound raw pork belly\n\n\n3 tablespoons vegetable oil\n\n\n¼ cup light soy sauce\n\n\n¼ cup dark soy sauce\n\n\n½ cup Chinese rice cooking wine\n\n\n3 ½ ounces Chinese rock sugar\n\n\n1 (1 inch) piece fresh ginger, peeled and grated\n\n\n8 spring onions, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice pork belly into 2-inch wide strips. Bring a large pot of water to a boil, and stir in pork slices; reduce heat to a simmer, and cook the meat for 10 minutes. Remove from the water and blot dry with paper towels."},{"recipe_directions":"Heat vegetable oil over medium-high heat in a large wok. Brown pork strips well on all sides. Pork will splatter — use a splatter shield for this step."},{"recipe_directions":"While pork is browning, mix together light soy sauce, dark soy sauce, rice wine, rock sugar, ginger, and spring onions in a large soup pot or stockpot. Bring the mixture to a boil, stirring to dissolve sugar. Reduce heat to a gentle simmer and lay the pork strips into the liquid. Cover, and simmer until the meat is very tender, 1 1/2 to 2 hours. Add water as needed to keep the liquid from going completely dry."},{"recipe_directions":"Chinese rock sugar is available at specialty and Asian grocery stores. If you can't find it, substitute brown sugar."},{"recipe_directions":"A dash of five-spice powder is delicious, but not traditional. I like to quickly stir-fry some vermicelli with some of the remaining liquid and serve the pork on top."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"578\nCalories\n\n\n47g \nFat\n\n\n26g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641704-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7auGeChLke-t_I1h5J6OXqHE6Y8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/371930-9a5e95fa18fd41e3af753eb25b70e51c.jpg"
@@ -2020,59 +2249,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/164254/chinese-mabo-tofu/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Chinese Mapo Tofu</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon cold water\n\n\n1 teaspoon cornstarch\n\n\n½ pound ground pork\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 (16 ounce) package firm tofu, cut into 1 inch pieces\n\n\n5 tablespoons soy sauce\n\n\n2 tablespoons hot bean sauce\n\n\n1 teaspoon white sugar\n\n\n3  green onions, chopped\n\n\n1 teaspoon sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon cold water\n\n\n1 teaspoon cornstarch\n\n\n½ pound ground pork\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 (16 ounce) package firm tofu, cut into 1 inch pieces\n\n\n5 tablespoons soy sauce\n\n\n2 tablespoons hot bean sauce\n\n\n1 teaspoon white sugar\n\n\n3  green onions, chopped\n\n\n1 teaspoon sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix water and cornstarch in a small bowl; set aside."},{"recipe_directions":"Brown ground pork in a small skillet over medium-high heat, about 5 minutes. Drain fat."},{"recipe_directions":"Heat oil over medium-high heat in a large skillet or wok. Cook garlic and ginger in oil until fragrant, about 1 minute. Stir in tofu and cook for 2 minutes. Season with soy sauce, hot bean sauce, and sugar; stir to combine."},{"recipe_directions":"Stir in cooked pork and green onion. Sprinkle with cornstarch and water mixture; cook and stir until thickened, about 2 minutes. Stir sesame oil into the thickened mapo tofu."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n17g \nFat\n\n\n8g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641707-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tSkLExw5s3-b4ol37yVN8zVtEME=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/4513430-05c5d4f1b95f4f88bc66c31c68971233.jpg"
@@ -2085,59 +2310,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18792/szechuan-spicy-eggplant/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Szechuan Spicy Eggplant</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 1/2 pound) eggplant\n\n\n¼ cup soy sauce\n\n\n¼ cup chicken stock\n\n\n2 tablespoons oyster sauce (Optional)\n\n\n1 teaspoon chili sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup water\n\n\n1 tablespoon cornstarch\n\n\n  cooking spray\n\n\n4 large green onions, finely chopped\n\n\n1 tablespoon chopped fresh ginger root\n\n\n2 cloves garlic, minced\n\n\n⅓ pound lean ground beef\n\n\n¼ pound fresh shrimp - peeled, deveined, and diced\n\n\n1 tablespoon sesame oil\n\n\n4 cups hot cooked rice"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 1/2 pound) eggplant\n\n\n¼ cup soy sauce\n\n\n¼ cup chicken stock\n\n\n2 tablespoons oyster sauce (Optional)\n\n\n1 teaspoon chili sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon ground black pepper\n\n\n¼ cup water\n\n\n1 tablespoon cornstarch\n\n\n  cooking spray\n\n\n4 large green onions, finely chopped\n\n\n1 tablespoon chopped fresh ginger root\n\n\n2 cloves garlic, minced\n\n\n⅓ pound lean ground beef\n\n\n¼ pound fresh shrimp - peeled, deveined, and diced\n\n\n1 tablespoon sesame oil\n\n\n4 cups hot cooked rice'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Remove eggplant stem and cut flesh into 1-inch cubes. Set aside."},{"recipe_directions":"Mix together soy sauce, stock, oyster sauce, chili sauce, sugar, and black pepper in a medium bowl until well combined; set aside. Stir together water and cornstarch in a small bowl until smooth; set aside."},{"recipe_directions":"Coat a large, deep pan with cooking spray over high heat and heat until very hot, about 3 minutes. Cook and stir 1/2 of the green onions, ginger, and garlic in the hot pan until lightly browned, 3 to 5 minutes. Add beef; cook and stir until lightly browned and crumbly, about 3 minutes."},{"recipe_directions":"Stir in eggplant, then pour soy sauce mixture over all. Cover the pan, reduce heat to medium low, and let simmer for 15 minutes, stirring occasionally. Add shrimp during the last few minutes of cooking."},{"recipe_directions":"Stir in cornstarch mixture and cook until thickened. Mix in remaining green onions and sesame oil. Serve over hot rice."},{"recipe_directions":"You can use 3 tablespoons dried shrimp instead of fresh shrimp; add with the garlic and ginger in step 3."},{"recipe_directions":"You can use ground pork instead of ground beef."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"441\nCalories\n\n\n13g \nFat\n\n\n62g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641711-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E6FnJhocFyNJUxlHgK9rXNbdtlg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/fileB7w3F1-72f174ad681b4b9fa8b6b9094371056b.jpg"
@@ -2149,59 +2370,55 @@
 7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/gluten-free-slow-cooker-dinners/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Oh, slow cooker, you make life so much easier for us! But for those of us who need slow cooker deliciousness to also be gluten-free, that ease can be a little harder to come by. Or is it? Many beef-and-potato stew recipes are naturally gluten-free. But many recipes that seem gluten-free may contain some foods you'd never think would contain gluten (hello, soy sauce!). These seven top-rated, wildly delicious, gluten-free slow-cooker dinners appeal to gluten fiends and gluten-frees alike. Enjoy!"},{"recipe_directions":"1. Slow Cooker Spanish Beef Stew"},{"recipe_directions":"Jen79 gave this recipe by Moefunk04 five stars, and added a couple of tweaks of her own: \"I cooked this for four hours on low and then one and a half on high. My husband and I really enjoyed it.\""},{"recipe_directions":"Get the Recipe: Slow Cooker Spanish Beef Stew"},{"recipe_directions":"2. Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"Recipe creator CHARLEY357 says, \"This recipe can be used with chicken, beef, pork and even venison. It freezes well, and can be made into burritos or tacos.\" So, just get yourself some corn tortillas and some Mexican food fixins, and you're in business!"},{"recipe_directions":"Get the Recipe: Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"3. Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"\"This was a hit!\" says Betsy of this recipe by Elena. \"Super easy and very tasty. I threw in a couple of frozen chicken breasts rather than cooking them first and saved myself a step. (I shredded them towards the end.)\""},{"recipe_directions":"Get the Recipe: Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"4. Slow Cooker Pepper Steak"},{"recipe_directions":"\"This was easy and delicious!\" Says TRACI8878 of this recipe by MJWAGNER68. \"I added a couple of cloves of chopped garlic and a few dashes of Worcestershire sauce.\" Many reviewers also recommend adding the peppers at the end if you like them crisper. Make sure you substitute Tamari, gluten-free soy sauce, in place of the regular soy sauce this recipe calls for."},{"recipe_directions":"Get the Recipe: Slow Cooker Pepper Steak"},{"recipe_directions":"5. Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"\"A wonderful 'fix and forget' recipe that is easy and pleases just about everyone,\" says recipe creator Carla Joy. She suggests serving it \"with rice or pasta, or even alone.\" Gluten-free tip: There are so many delicious gluten-free pasta options these days, so don't count out that pasta option just yet. You can always serve this over rice, though."},{"recipe_directions":"Get the Recipe: Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"6. Pork Chalupas"},{"recipe_directions":"\"Delicious!\" says Athena of this recipe by Stefani Ferguson. \"The only thing I did differently was toss the raw beef in adobo saffron spices before browning it. Otherwise I followed the recipe to a tee. Definitely a new family favorite! Even my 2 year old loves it!\" IMPORTANT NOTE: To go fully gluten-free, be sure to use corn tortillas rather than the flour ones the recipe calls for."},{"recipe_directions":"Get the Recipe: Pork Chalupas"},{"recipe_directions":"7. Slow Cooker Mongolian Beef"},{"recipe_directions":"Use Tamari gluten-free soy sauce instead of regular soy sauce, and you'll have a meal that \"tastes like you got it at a Chinese restaurant,\" says recipe creator, leith123. Serve this over rice or rice noodles."},{"recipe_directions":"Get the Recipe: Slow Cooker Mongolian Beef"},{"recipe_directions":"More Gluten-Free Goodness:"},{"recipe_directions":"Breakfast of Champions: Gluten-Free Pancakes"},{"recipe_directions":"Tasty Flourless Peanut Butter Cookies"},{"recipe_directions":"The Epic Allrecipes Library of 1,300 Gluten-Free Recipes"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Dinner Fix"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641714-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f2e4l6ZYu1zA6IkU7ZvNUty6peU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/42968-7700ff1b802348bcbc79d549714ebcd6.jpg"
@@ -2214,59 +2431,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/41206/chinese-barbequed-spareribs/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Chinese Barbecued Spareribs</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup hoisin sauce\n\n\n¼ cup jellied cranberry sauce\n\n\n3 tablespoons reduced sodium soy sauce\n\n\n2 tablespoons white wine\n\n\n2 tablespoons honey\n\n\n½ teaspoon red food coloring\n\n\n½ teaspoon garlic salt\n\n\n¼ teaspoon Chinese five-spice powder\n\n\n4 pounds pork spareribs, cut into 1-inch pieces\n\n\n2 cups water"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup hoisin sauce\n\n\n¼ cup jellied cranberry sauce\n\n\n3 tablespoons reduced sodium soy sauce\n\n\n2 tablespoons white wine\n\n\n2 tablespoons honey\n\n\n½ teaspoon red food coloring\n\n\n½ teaspoon garlic salt\n\n\n¼ teaspoon Chinese five-spice powder\n\n\n4 pounds pork spareribs, cut into 1-inch pieces\n\n\n2 cups water'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, blend hoisin sauce, cranberry sauce, soy sauce, white wine, honey, and red food coloring. Mix in garlic salt and Chinese five-spice powder. Place ribs in the mixture. Cover, and marinate in the refrigerator at least 1 hour."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place water in the bottom of a large roasting pan. Arrange ribs on the pan rack, and cook 30 minutes in the preheated oven. Cover with remaining sauce mixture, and continue cooking 30 minutes or until it has an internal temperature of 160 degrees F (70 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"932\nCalories\n\n\n72g \nFat\n\n\n21g \nCarbs\n\n\n48g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641719-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7tzaKYmHic2Nh2gBgLSQC92guBM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4484471-7478a98fa0e4415a927b9d78dbab7e47.jpg"
@@ -2279,59 +2492,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257372/taiwanese-dumplings/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Taiwanese Dumplings</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n20 \n\n\nYield:\n100 dumplings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 heads  napa cabbage, finely chopped\n\n\n1 bunch cilantro, chopped\n\n\n2 pounds ground pork\n\n\n3  jalapeno peppers, minced\n\n\n2 large egg whites\n\n\n1 (2 inch) piece ginger root, peeled and minced\n\n\n1 tablespoon sesame oil\n\n\n  salt and ground black pepper to taste\n\n\n3 (16 ounce) packages potsticker wrappers, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 heads  napa cabbage, finely chopped\n\n\n1 bunch cilantro, chopped\n\n\n2 pounds ground pork\n\n\n3  jalapeno peppers, minced\n\n\n2 large egg whites\n\n\n1 (2 inch) piece ginger root, peeled and minced\n\n\n1 tablespoon sesame oil\n\n\n  salt and ground black pepper to taste\n\n\n3 (16 ounce) packages potsticker wrappers, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread cabbage and cilantro over a clean dish towel. Gather up towel and squeeze out as much moisture from cabbage as possible."},{"recipe_directions":"Transfer cabbage and cilantro to a large bowl. Add pork, jalapeño peppers, egg whites, ginger, and sesame oil. Mix thoroughly with your hands. Season with salt and pepper."},{"recipe_directions":"Line 2 baking sheets with waxed paper. Fill a small bowl with water."},{"recipe_directions":"Hold a potsticker wrapper in the palm of your hand. Place a tablespoonful pork mixture in the center. Dip a finger in water and wet the edges of the wrapper. Fold up edges and pinch together to seal. Transfer dumpling to the prepared baking sheet. Repeat with remaining wrappers and pork mixture."},{"recipe_directions":"Place dumplings in the freezer until firm, about 2 hours. Transfer to large resealable plastic bags and store in the freezer."},{"recipe_directions":"You can substitute 2 leeks for napa cabbage if desired. I've also made these with 1 head napa cabbage, 1 head bok choy, and 1 bunch scallions. It's a great combo."},{"recipe_directions":"If you have dumplings that did not seal completely or have broken skin, do not freeze them, as they'll fall apart later. Just cook those for dinner tonight instead."},{"recipe_directions":"How to cook dumplings: Cook frozen dumplings in boiling water for about 5 minutes, then pan-fry in a greased skillet over medium heat until browned on all sides. If dumplings have not been frozen, skip the boiling step."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"305\nCalories\n\n\n8g \nFat\n\n\n41g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641724-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Zu-2yFu3Owz6ZkjC0CXwm6-bGPg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4x3-GOLDMAN_ALR0323_InSeason_StirFry_1751-11283adbb17c4d44afcdbfd448dc6cf6.jpg"
@@ -2345,59 +2554,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/187448/sweet-and-spicy-pork-and-napa-cabbage-stir-fry-with-spicy-noodles/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Sweet and Spicy Pork and Napa Cabbage Stir-Fry with Spicy Noodles</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 ounces dry Chinese noodles\n\n\n3 tablespoons soy sauce\n\n\n¾ cup sweet chili sauce\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon ground ginger\n\n\n3 tablespoons sesame oil\n\n\n½ cup soy sauce\n\n\n½ teaspoon garlic powder\n\n\n1 (1 pound) pork loin, cut into 2-inch strips\n\n\n2 tablespoons cooking oil\n\n\n2  onions, cut into bite-size pieces\n\n\n⅛ teaspoon crushed red pepper flakes\n\n\n3 tablespoons sweet chili sauce\n\n\n3 cups chopped napa cabbage\n\n\n¾ cup sliced celery\n\n\n1 cup sliced carrots\n\n\n3  red bell peppers, chopped\n\n\n2 teaspoons cornstarch\n\n\n¼ cup cold water"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 ounces dry Chinese noodles\n\n\n3 tablespoons soy sauce\n\n\n¾ cup sweet chili sauce\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon ground ginger\n\n\n3 tablespoons sesame oil\n\n\n½ cup soy sauce\n\n\n½ teaspoon garlic powder\n\n\n1 (1 pound) pork loin, cut into 2-inch strips\n\n\n2 tablespoons cooking oil\n\n\n2  onions, cut into bite-size pieces\n\n\n⅛ teaspoon crushed red pepper flakes\n\n\n3 tablespoons sweet chili sauce\n\n\n3 cups chopped napa cabbage\n\n\n¾ cup sliced celery\n\n\n1 cup sliced carrots\n\n\n3  red bell peppers, chopped\n\n\n2 teaspoons cornstarch\n\n\n¼ cup cold water'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with lightly salted water and bring to a rolling boil over high heat. Stir in noodles and return to a boil. Cook pasta uncovered, stirring occasionally, until cooked through but still firm to the bite, about 5 minutes. Drain well in a colander set in the sink."},{"recipe_directions":"Whisk together 3 tablespoons soy sauce, 3/4 cup sweet chili sauce, 1/2 teaspoon garlic powder, ground ginger, and sesame oil in a large bowl; add drained noodles and toss to coat; set aside."},{"recipe_directions":"Whisk together 1/2 cup soy sauce and 1/2 teaspoon garlic powder in a large bowl; add pork and stir to coat. Allow to marinate 5 minutes."},{"recipe_directions":"Heat cooking oil in a wok or a large, deep skillet over medium-high heat. Add pork, onions, and red pepper flakes; cook until pork is browned completely. Stir in 3 tablespoons sweet chili sauce, napa cabbage, celery, carrots, and bell peppers; cook and stir until vegetables are heated through, about 5 minutes."},{"recipe_directions":"Whisk together cornstarch and water in a bowl; add to stir-fry, stirring until mixture thickens. Serve stir-fry over noodles."},{"recipe_directions":"Please note differences in ingredient amounts when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"527\nCalories\n\n\n19g \nFat\n\n\n73g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641729-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DAv6CLLwD7NWhtL7IFxhGUpUPXQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1598377-c04dd349869547e1882bdb2498f6d16b.jpg"
@@ -2410,59 +2615,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214865/hoisin-pork-stir-fry/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Hoisin Pork Stir Fry</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound boneless pork chops, cut into stir-fry strips\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons hoisin sauce\n\n\n¼ cup chicken broth\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon rice vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon red pepper flakes, or to taste\n\n\n1 tablespoon sesame oil\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons minced fresh ginger root\n\n\n1  carrot, peeled and sliced\n\n\n1  green bell pepper, sliced\n\n\n1 (4 ounce) can sliced water chestnuts, drained\n\n\n2  green onions, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound boneless pork chops, cut into stir-fry strips\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons hoisin sauce\n\n\n¼ cup chicken broth\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon rice vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon red pepper flakes, or to taste\n\n\n1 tablespoon sesame oil\n\n\n2 cloves garlic, minced\n\n\n2 teaspoons minced fresh ginger root\n\n\n1  carrot, peeled and sliced\n\n\n1  green bell pepper, sliced\n\n\n1 (4 ounce) can sliced water chestnuts, drained\n\n\n2  green onions, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix the sliced pork, 1 tablespoon hoisin sauce, and 1 tablespoon cornstarch together in a bowl. Set aside. Combine the remaining 2 tablespoons hoisin sauce, chicken broth, and 1 tablespoon cornstarch with rice vinegar, sugar, and cayenne pepper in small bowl. Set aside."},{"recipe_directions":"Heat the sesame oil in a skillet over medium-high heat. Stir in the pork; cook and stir until the pork begins to brown, about 5 minutes. Add the garlic and ginger; cook and stir until fragrant. Mix in the carrot, bell pepper, and water chestnuts, cooking until the carrots are tender. Stir in the reserved hoisin sauce mixture and continue cooking and stirring until the flavors are combined, about 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"235\nCalories\n\n\n11g \nFat\n\n\n18g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641732-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rwPqM8JahV-WpfSEJchMaXzGYzc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/887575-a43fd5ea65834b61961470d29b647fdc.jpg"
@@ -2475,59 +2676,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/64450/chinese-braised-spare-ribs/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Chinese Braised Spare Ribs</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound pork spareribs, cut into 3 inch pieces\n\n\n1 tablespoon vegetable oil\n\n\n1 (1 inch) piece fresh ginger root, sliced\n\n\n5  green onions cut into 2-inch pieces\n\n\n½ teaspoon ground cinnamon\n\n\n2 cups water\n\n\n1 ½ tablespoons soy sauce\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon rice wine\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon pepper"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound pork spareribs, cut into 3 inch pieces\n\n\n1 tablespoon vegetable oil\n\n\n1 (1 inch) piece fresh ginger root, sliced\n\n\n5  green onions cut into 2-inch pieces\n\n\n½ teaspoon ground cinnamon\n\n\n2 cups water\n\n\n1 ½ tablespoons soy sauce\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon rice wine\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon pepper'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil, then add the spareribs, and cook uncovered for 3 to 5 minutes. Drain in a colander and set aside."},{"recipe_directions":"Heat the vegetable oil in a skillet over high heat. Stir in the ginger, green onions, and cinnamon; cook and stir until fragrant. Stir in the spareribs and cook for 3 to 5 minutes. Pour in the water, soy sauce, sugar, and rice wine. Season with salt and pepper. Bring the mixture to a boil, then reduce heat to low and cover. Simmer until the spareribs are tender, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"244\nCalories\n\n\n19g \nFat\n\n\n4g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641737-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xLpIeuN46OwdnFYoQwCyTDPbO-k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1013934-cdc11d2af13c444bba449da6ee18a8fd.jpg"
@@ -2540,59 +2737,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/53935/chinese-pork-tenderloin/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Chinese Pork Tenderloin</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (1 1/2 pound) pork tenderloins, trimmed\n\n\n2 tablespoons light soy sauce\n\n\n2 tablespoons hoisin sauce\n\n\n1 tablespoon sherry\n\n\n1 tablespoon black bean sauce\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n1 ½ teaspoons packed brown sugar\n\n\n1 clove garlic\n\n\n½ teaspoon sesame oil\n\n\n1 pinch Chinese five-spice powder"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (1 1/2 pound) pork tenderloins, trimmed\n\n\n2 tablespoons light soy sauce\n\n\n2 tablespoons hoisin sauce\n\n\n1 tablespoon sherry\n\n\n1 tablespoon black bean sauce\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n1 ½ teaspoons packed brown sugar\n\n\n1 clove garlic\n\n\n½ teaspoon sesame oil\n\n\n1 pinch Chinese five-spice powder'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tenderloins in a shallow glass dish. In a small bowl, whisk together soy sauce, hoisin sauce, sherry, black bean sauce, ginger, sugar, garlic, sesame oil, and five-spice powder. Pour marinade over pork, and turn to coat. Cover, and refrigerate for at least 2 hours or up to 24 hours."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Remove tenderloins from refrigerator while the oven preheats."},{"recipe_directions":"Bake pork in preheated oven for 30 to 35 minutes, or to desired doneness. Let stand for 10 minutes, and then slice diagonally into thin slices."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n6g \nFat\n\n\n5g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641740-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/k2Yenpk9G4ougGX2VBAgC190NWk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3169367-5b3076ab976e405490090771db3eb0b7.jpg"
@@ -2605,59 +2798,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246481/slow-cooked-red-braised-pork-belly/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Slow-Cooked Red Braised Pork Belly</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 7 hrs 17 mins\n\n\nTotal Time:\n 7 hrs 37 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds pork belly, cut into bite-size pieces\n\n\n¼ cup vegetable oil\n\n\n3 tablespoons brown sugar\n\n\n¼ cup dark soy sauce\n\n\n¼ cup Shaoxing rice wine\n\n\n¼ cup light soy sauce\n\n\n4  scallions, halved\n\n\n4 slices fresh ginger\n\n\n4  star anise pods\n\n\n  water to cover\n\n\n½ (8 ounce) package vegetarian chicken substitute, diced (Optional)\n\n\n6  hard-boiled eggs, peeled (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds pork belly, cut into bite-size pieces\n\n\n¼ cup vegetable oil\n\n\n3 tablespoons brown sugar\n\n\n¼ cup dark soy sauce\n\n\n¼ cup Shaoxing rice wine\n\n\n¼ cup light soy sauce\n\n\n4  scallions, halved\n\n\n4 slices fresh ginger\n\n\n4  star anise pods\n\n\n  water to cover\n\n\n½ (8 ounce) package vegetarian chicken substitute, diced (Optional)\n\n\n6  hard-boiled eggs, peeled (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with water and bring to a boil. Add pork belly; cook until starting to soften, about 5 minutes. Drain."},{"recipe_directions":"Heat vegetable oil and brown sugar in a wok or large skillet over medium heat until sugar is melted. Add pork; cook until browned on all sides, about 2 minutes. Add dark soy sauce; cook and stir until flavors combine, about 5 minutes."},{"recipe_directions":"Transfer pork mixture to a slow cooker. Add rice wine, light soy sauce, scallions, ginger, and star anise. Pour in enough water to just cover the pork."},{"recipe_directions":"Cook on Low until pork is tender, about 6 hours. Add diced chicken substitute, hard-boiled eggs, and more water to cover."},{"recipe_directions":"Cook on Low until eggs absorb cooking liquid, rotating halfway through, about 1 hour more."},{"recipe_directions":"Use crystal sugar instead of brown sugar if you have it."},{"recipe_directions":"Substitute dry sherry for the rice wine if desired. Substitute chicken stock for the water if desired."},{"recipe_directions":"Substitute tofu puffs or tofu knots for the vegetarian chicken if preferred."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"680\nCalories\n\n\n49g \nFat\n\n\n16g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641743-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tJfrdtu4Z61mWm4ylVjn8VO-LgQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/7515272-5a06691c2f894c2f98a908450d191b69.jpg"
@@ -2670,59 +2859,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277954/air-fryer-chinese-sweet-and-sour-pork/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Air Fryer Chinese Sweet and Sour Pork</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds pork cutlets, cut into bite-sized pieces\n\n\n3 tablespoons cornstarch\n\n\n1 teaspoon sesame oil\n\n\n1  serving nonstick cooking spray"},{"recipe_ingredients":"¼ cup white sugar\n\n\n¼ cup rice vinegar\n\n\n4 tablespoons ketchup\n\n\n2 tablespoons soy sauce"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds pork cutlets, cut into bite-sized pieces\n\n\n3 tablespoons cornstarch\n\n\n1 teaspoon sesame oil\n\n\n1  serving nonstick cooking spray'}, {'recipe_ingredients': '¼ cup white sugar\n\n\n¼ cup rice vinegar\n\n\n4 tablespoons ketchup\n\n\n2 tablespoons soy sauce'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place pork, cornstarch, and sesame oil in a bowl and toss to coat. Let sit for 5 minutes."},{"recipe_directions":"Meanwhile, preheat the air fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Spray the basket of the air fryer with cooking spray. Place pork in the basket of the air fryer and spray top of pork with cooking spray."},{"recipe_directions":"Cook for 10 minutes. Shake the basket and cook pork until desired crispness, about 10 minutes more."},{"recipe_directions":"While the pork is cooking, combine sugar, vinegar, ketchup, and soy sauce in a saucepan over medium-high heat. Whisk constantly until sugar is dissolved and mixture comes to a boil. Reduce heat to low and keep sauce warm until ready to use."},{"recipe_directions":"Transfer pork to a bowl. Pour sauce on top of the pork and toss to coat."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"304\nCalories\n\n\n10g \nFat\n\n\n22g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641748-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0vCYZ_3grxQwoy0ReULcWHlKl0A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7169988-a509376f20804ab3ab437cb19e2f74a4.jpg"
@@ -2735,59 +2920,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276655/instant-pot-sweet-and-sour-pork/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Instant Pot Sweet and Sour Pork</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1 pound boneless pork loin, cut into 3/4-inch cubes\n\n\n1 ¼ cups water, divided\n\n\n½ cup ketchup\n\n\n⅓ cup rice vinegar\n\n\n⅓ cup pineapple juice\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons low-sodium soy sauce\n\n\n2 teaspoons minced fresh ginger\n\n\n1 teaspoon minced garlic\n\n\n  aluminum foil\n\n\n1  onion, vertically sliced\n\n\n1 cup chopped fresh pineapple\n\n\n1  red bell pepper, cut into large chunks\n\n\n1  green bell pepper, cut into large chunks\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon toasted sesame seeds (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1 pound boneless pork loin, cut into 3/4-inch cubes\n\n\n1 ¼ cups water, divided\n\n\n½ cup ketchup\n\n\n⅓ cup rice vinegar\n\n\n⅓ cup pineapple juice\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons low-sodium soy sauce\n\n\n2 teaspoons minced fresh ginger\n\n\n1 teaspoon minced garlic\n\n\n  aluminum foil\n\n\n1  onion, vertically sliced\n\n\n1 cup chopped fresh pineapple\n\n\n1  red bell pepper, cut into large chunks\n\n\n1  green bell pepper, cut into large chunks\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon toasted sesame seeds (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as an Instant Pot) and select Saute function. Add oil and heat until hot. Add pork cubes, working in batches if necessary, and cook until browned on all sides, about 5 minutes. Return all the pork back to the pot and cancel Saute mode."},{"recipe_directions":"Whisk together 3/4 cup water, ketchup, rice vinegar, pineapple juice, brown sugar, soy sauce, ginger, and garlic in a small bowl. Pour over pork and stir to combine."},{"recipe_directions":"Close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 5 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to manufacturer's instructions, about 5 minutes. Release remaining pressure using the quick-release method. Unlock the lid and remove. Transfer pork to a plate using a slotted spoon. Cover with foil to keep warm."},{"recipe_directions":"Select Saute mode and stir in onion, pineapple, and red and green bell peppers. Simmer until vegetables start to soften, 6 to 7 minutes."},{"recipe_directions":"Whisk together cornstarch and remaining 1/2 cup water in a small bowl until smooth. Pour slurry into the pot. Cook, stirring constantly, until sauce has thickened to your preferred consistency, about 2 minutes. Return cooked pork back to the pot and heat until just warmed through. Garnish with sesame seeds."},{"recipe_directions":"Feel free to use whatever color bell peppers you like. Canned, drained pineapple chunks may be substituted for fresh."},{"recipe_directions":"Adjust thickness of sauce by either adding more water for a thinner sauce or whisking in cornstarch mixed with water to thicken it."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"329\nCalories\n\n\n11g \nFat\n\n\n36g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641752-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wmavmz_W628mLc4y7Z4O-ADuvU8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/30075-6c10d2267908475abe1dc8df5864513c.jpg"
@@ -2800,59 +2981,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14769/chinese-roast-pork/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Chinese Roast Pork</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n9 \n\n\nYield:\n8 to 10 servings"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 pounds bone-in pork roast\n\n\n¾ cup soy sauce\n\n\n½ cup dry sherry\n\n\n⅓ cup honey\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon ground ginger\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon water"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 pounds bone-in pork roast\n\n\n¾ cup soy sauce\n\n\n½ cup dry sherry\n\n\n⅓ cup honey\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon ground ginger\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon water'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To Marinate: Pierce meaty sides of meat with fork; place roast in a large plastic bag. In a medium bowl combine the soy sauce, sherry, honey, garlic and ginger. Mix well and pour mixture into bag with pork. Press air out of the bag and tie securely. Refrigerate at least 8 hours or overnight, turning bag over occasionally."},{"recipe_directions":"Preheat oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Remove roast and marinade from refrigerator. Reserving marinade, remove roast and place in a 9x13 inch baking dish. Roast in the preheated oven for 1 hour. Brush with reserved marinade; cover loosely with foil and roast for an additional 1 1/2 hours (or until the internal temperature has reached 145 degrees F (63 degrees C), brushing several times with marinade."},{"recipe_directions":"Remove roast from oven and let stand 15 minutes. Combine pan drippings with remaining marinade. In a small bowl combine cornstarch with cold water, mix together and add mixture to marinade. Boil marinade mixture for 4 to 5 minutes, or until mixture thickens. Serve with roast."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"351\nCalories\n\n\n22g \nFat\n\n\n15g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641755-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iiPdtIzHQxEsJwYnAjRX-nq2CGI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/973034-d7fdf3f985e14f07a041920aff413cab.jpg"
@@ -2865,59 +3042,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231306/pork-wonton-soup/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Pork Wonton Soup</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 bowls soup"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon rice wine\n\n\n½ teaspoon cornstarch\n\n\n¾ pound ground pork\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon minced fresh ginger\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon white sugar\n\n\n  salt to taste\n\n\n25  wonton wrappers\n\n\n1  egg, beaten\n\n\n3 heads  bok choy, sliced\n\n\n10  sugar snap peas, sliced\n\n\n1  carrot, thinly sliced\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n2 cups chicken broth\n\n\n1 cup water\n\n\n¼ cup finely chopped green onion (white and light green parts)"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon rice wine\n\n\n½ teaspoon cornstarch\n\n\n¾ pound ground pork\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon minced fresh ginger\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon white sugar\n\n\n  salt to taste\n\n\n25  wonton wrappers\n\n\n1  egg, beaten\n\n\n3 heads  bok choy, sliced\n\n\n10  sugar snap peas, sliced\n\n\n1  carrot, thinly sliced\n\n\n2 tablespoons finely chopped green onion (white and light green parts)\n\n\n2 cups chicken broth\n\n\n1 cup water\n\n\n¼ cup finely chopped green onion (white and light green parts)'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk rice wine and cornstarch together in large bowl. Add ground pork, 2 tablespoons green onion, soy sauce, ginger, sesame oil, and sugar; stir until well combined and paste-like, about 10 minutes. Cover and refrigerate for 1 hour."},{"recipe_directions":"Place about 1 tablespoon pork mixture in the middle of a wonton wrapper. Brush edges with beaten egg and pinch edges to seal, creating a small pouch. Repeat with remaining wonton wrappers and pork mixture. Refrigerate until ready to use."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add bok choy, snap peas, carrot, and 2 tablespoons green onion, cover, and steam until tender, 2 to 6 minutes. Remove and distribute evenly among 4 soup bowls."},{"recipe_directions":"Place wontons in steamer basket and steam until pork is no longer pink inside, about 10 minutes. Remove and place in soup bowls alongside vegetables."},{"recipe_directions":"Heat chicken broth and water in a saucepan until hot, 5 to 7 minutes. Pour hot broth mixture evenly into soup bowls atop vegetables and wontons. Sprinkle 1/4 cup chopped green onion evenly over each bowl."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"513\nCalories\n\n\n16g \nFat\n\n\n58g \nCarbs\n\n\n32g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641758-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3SY_o1Q5SF8HbbhhL8Q29nOj9ow=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/179359_Tsao-Mi-Fun-Taiwanese-Fried-Rice-Noodles-MOONBERRY_5124126_original-1x1-1-1298996def1d4eeb80395eb46b6aa059.jpg"
@@ -2931,59 +3104,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/173959/tsao-mi-fun-taiwanese-fried-rice-noodles/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Tsao Mi Fun (Taiwanese Fried Rice Noodles)</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound thinly sliced pork loin\n\n\n¼ cup soy sauce\n\n\n¼ cup rice wine\n\n\n1 teaspoon white pepper\n\n\n1 teaspoon Chinese five-spice powder\n\n\n1 teaspoon cornstarch\n\n\n4  dried Chinese black mushrooms\n\n\n1 (8 ounce) package dried rice vermicelli\n\n\n¼ cup vegetable oil, divided\n\n\n2  eggs, beaten\n\n\n¼ clove garlic, minced\n\n\n1 tablespoon dried small shrimp\n\n\n3  carrots, cut into matchstick strips\n\n\n½  onion, chopped\n\n\n3 cups bean sprouts\n\n\n4 leaves napa cabbage, thinly sliced\n\n\n  salt to taste\n\n\n3 sprigs fresh cilantro for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound thinly sliced pork loin\n\n\n¼ cup soy sauce\n\n\n¼ cup rice wine\n\n\n1 teaspoon white pepper\n\n\n1 teaspoon Chinese five-spice powder\n\n\n1 teaspoon cornstarch\n\n\n4  dried Chinese black mushrooms\n\n\n1 (8 ounce) package dried rice vermicelli\n\n\n¼ cup vegetable oil, divided\n\n\n2  eggs, beaten\n\n\n¼ clove garlic, minced\n\n\n1 tablespoon dried small shrimp\n\n\n3  carrots, cut into matchstick strips\n\n\n½  onion, chopped\n\n\n3 cups bean sprouts\n\n\n4 leaves napa cabbage, thinly sliced\n\n\n  salt to taste\n\n\n3 sprigs fresh cilantro for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the pork into a mixing bowl and pour in the soy sauce and rice wine. Sprinkle with the white pepper, five-spice powder, and cornstarch. Mix well, then set aside to marinate. Soak the mushrooms in a bowl of cold water for 20 minutes, then pour off the water, cut off and discard the stems of the mushrooms. Slice the mushrooms thinly and reserve. Soak the rice vermicelli in a separate bowl of cold water for 10 minutes, then pour off the water and set the noodles aside."},{"recipe_directions":"Heat 1 tablespoon of the vegetable oil in a wok or large skillet over medium heat. Pour in the eggs, and cook until firm, flipping once, to make a pancake. Remove the egg pancake, and allow to cool, then thinly slice and place into a large bowl. Heat 2 more tablespoons of the vegetable oil in the wok over high heat. Stir in the garlic and dried shrimp, and cook until the shrimp become aromatic, about 20 seconds. Next, add the pork along with the marinade, and cook until the pork is no longer pink, about 4 minutes. Stir in the carrots and onion, and cook until the carrots begin to soften, about 3 minutes. Finally, add the bean sprouts, napa cabbage, and sliced mushrooms; cook and stir until the vegetables are tender, about 3 minutes more. Scrape the pork mixture into the bowl along with the eggs, then wipe out the wok and return it to the stove over medium-high heat."},{"recipe_directions":"Heat the remaining vegetable oil in the wok, then stir in the drained rice vermicelli noodles. Cook and stir for a few minutes until the noodles soften, then stir in the reserved pork mixture. Scrape the mixture in to a serving bowl and garnish with cilantro to serve."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Fried Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"523\nCalories\n\n\n20g \nFat\n\n\n63g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641761-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HfmeG0dBvlsr5lNpDlwOJ6tqoJo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3275231-hong-kong-sweet-and-sour-pork-Josh-Hawkes-4x3-1-6782867cf8a7442090f1a71521070d02.jpg"
@@ -2997,59 +3166,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/143090/hong-kong-sweet-and-sour-pork/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Hong Kong Sweet and Sour Pork</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons light soy sauce\n\n\n⅛ teaspoon white sugar\n\n\n2 teaspoons potato starch\n\n\n1 teaspoon sesame oil\n\n\n  ground black pepper to taste\n\n\n1 pound pork loin, cut into 1-inch cubes\n\n\n1 cup water\n\n\n2 tablespoons white vinegar\n\n\n¼ cup ketchup\n\n\n¼ cup white sugar\n\n\n1 pinch salt\n\n\n2 teaspoons potato starch\n\n\n1 dash red food coloring\n\n\n1  egg, beaten\n\n\n1 cup potato starch\n\n\n2 cups peanut oil for frying\n\n\n1  green bell pepper, cut into large chunks\n\n\n2  cayenne peppers, sliced\n\n\n4  slices canned pineapple, chopped\n\n\n2 cloves garlic, sliced\n\n\n2  green onions, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons light soy sauce\n\n\n⅛ teaspoon white sugar\n\n\n2 teaspoons potato starch\n\n\n1 teaspoon sesame oil\n\n\n  ground black pepper to taste\n\n\n1 pound pork loin, cut into 1-inch cubes\n\n\n1 cup water\n\n\n2 tablespoons white vinegar\n\n\n¼ cup ketchup\n\n\n¼ cup white sugar\n\n\n1 pinch salt\n\n\n2 teaspoons potato starch\n\n\n1 dash red food coloring\n\n\n1  egg, beaten\n\n\n1 cup potato starch\n\n\n2 cups peanut oil for frying\n\n\n1  green bell pepper, cut into large chunks\n\n\n2  cayenne peppers, sliced\n\n\n4  slices canned pineapple, chopped\n\n\n2 cloves garlic, sliced\n\n\n2  green onions, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together the soy sauce, sugar, 2 teaspoons potato starch, sesame oil, and black pepper in a large bowl. Mix the pork into the marinade and turn until all the pork is covered. Allow to rest for 15 minutes."},{"recipe_directions":"To make the sauce, whisk together the water, vinegar, ketchup, 1/4 cup sugar, salt, 2 teaspoons potato starch, and red food coloring in a separate bowl. Set aside."},{"recipe_directions":"Dip the pork pieces in the beaten egg, then dredge in the 1 cup potato starch. Use your hand to press the starch onto the pork, assuring a consistent coating."},{"recipe_directions":"Heat the peanut oil in a wok over medium-high heat to a temperature of 375 degrees F (190 degrees C)."},{"recipe_directions":"Fry the pork pieces in the hot oil until crisp and light brown, 4 to 5 minutes. Remove the pork from the oil and drain, keeping the oil hot. Return the drained pork pieces to the hot oil for 30 seconds more. Remove and drain again. Pour off all but 1 tablespoon of oil from the wok."},{"recipe_directions":"Heat 1 tablespoon of reserved oil in the wok over medium heat. Cook the green bell pepper, cayenne pepper, pineapple, garlic, and green onion in the heated oil for about 5 minutes. Add the sauce and stir until it thickens. Stir in the pork and toss until the pork is coated with sauce. Remove from heat and serve."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"588\nCalories\n\n\n28g \nFat\n\n\n60g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641764-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/X8cAuoiwMvE984bEy0rTFPMcrWw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1955486-ec92d573d80d4ab893af9add96b11729.jpg"
@@ -3062,59 +3227,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/157593/pork-and-bamboo-shoots/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Pork and Bamboo Shoots</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon peanut oil\n\n\n1 (14 ounce) can thinly sliced bamboo shoots\n\n\n2 tablespoons peanut oil\n\n\n2 cloves garlic, minced\n\n\n1  fresh red chile pepper, seeded and minced\n\n\n½ teaspoon crushed red pepper flakes\n\n\n3 ounces ground pork\n\n\n1 teaspoon Shaoxing rice wine\n\n\n  salt to taste\n\n\n2 teaspoons rice vinegar\n\n\n2 teaspoons soy sauce\n\n\n3 tablespoons chicken broth\n\n\n3  green onions, thinly sliced\n\n\n1 teaspoon sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon peanut oil\n\n\n1 (14 ounce) can thinly sliced bamboo shoots\n\n\n2 tablespoons peanut oil\n\n\n2 cloves garlic, minced\n\n\n1  fresh red chile pepper, seeded and minced\n\n\n½ teaspoon crushed red pepper flakes\n\n\n3 ounces ground pork\n\n\n1 teaspoon Shaoxing rice wine\n\n\n  salt to taste\n\n\n2 teaspoons rice vinegar\n\n\n2 teaspoons soy sauce\n\n\n3 tablespoons chicken broth\n\n\n3  green onions, thinly sliced\n\n\n1 teaspoon sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat one tablespoon peanut oil in a wok set over medium heat. Add the bamboo shoots to the pan; stir-fry until dry and fragrant, about 3 minutes. Remove from wok and reserve."},{"recipe_directions":"Increase temperature to high, and pour in the remaining peanut oil. Quickly fry the garlic, red chile, and red pepper flakes in the hot oil until fragrant. Stir in the pork, and continue to stir-fry until it is cooked through. Pour in the wine; season with salt to taste."},{"recipe_directions":"Return the bamboo shoots to the wok, and heat until sizzly. Stir in the rice vinegar, soy sauce, chicken broth, and additional salt to taste. Cook and stir for 1 to 2 minutes to allow the flavor to penetrate the bamboo shoots. At the end of cooking, stir in green onions. Remove wok from heat; stir in sesame oil before serving."},{"recipe_directions":"Dry sherry can be substituted for the Shaoxing rice wine, if desired."},{"recipe_directions":"Water can be substituted for the chicken stock, if desired."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"353\nCalories\n\n\n30g \nFat\n\n\n12g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641768-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0nUTYvimZPNJ_5mH5tNwIJ5872g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/767710-5e2740711b724dd0896569d2be4c7a70.jpg"
@@ -3127,59 +3288,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22331/pork-chop-suey/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Pork Chop Suey</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n6 mins\n\n\nTotal Time:\n51 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound pork tenderloin\n\n\n¼ cup all-purpose flour\n\n\n2 tablespoons vegetable oil, divided\n\n\n2 cups thinly sliced bok choy\n\n\n1 cup chopped celery\n\n\n1 cup red bell pepper, cut into 1/4 inch strips\n\n\n1 cup sliced mushrooms\n\n\n1 (8 ounce) can water chestnuts, sliced\n\n\n2 cloves garlic, minced\n\n\n¼ cup chicken broth\n\n\n¼ cup soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon dry sherry\n\n\n½ teaspoon ground ginger"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound pork tenderloin\n\n\n¼ cup all-purpose flour\n\n\n2 tablespoons vegetable oil, divided\n\n\n2 cups thinly sliced bok choy\n\n\n1 cup chopped celery\n\n\n1 cup red bell pepper, cut into 1/4 inch strips\n\n\n1 cup sliced mushrooms\n\n\n1 (8 ounce) can water chestnuts, sliced\n\n\n2 cloves garlic, minced\n\n\n¼ cup chicken broth\n\n\n¼ cup soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon dry sherry\n\n\n½ teaspoon ground ginger'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Trim fat from pork, cut into 1 inch pieces. Combine flour and pork in a resealable bag, seal and shake well."},{"recipe_directions":"Heat 1 tablespoon oil in a large skillet over medium high heat. Add pork, cook 3 minutes or until browned. Remove from pan and keep warm."},{"recipe_directions":"Heat remaining tablespoon oil in pan. Add bok choy, celery, red pepper, mushrooms, water chestnuts and garlic; stir fry for 3 minutes. In a bowl combine chicken broth, soy sauce, cornstarch, sherry and ginger. Stir well with a whisk. Combine pork and broth mixture in skillet, cook 1 minute or until thick."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"194\nCalories\n\n\n8g \nFat\n\n\n14g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699641772-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cpKNjOaa3NJTKKGu5FhpbzsS_T0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8927517-7ad262ab4d0745368ce35a7f5ebf4b3e.jpg"
@@ -3192,59 +3349,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/31059/stir-fry-pork-with-ginger/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Stir-Fry Pork with Ginger</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n½ inch piece fresh ginger root, thinly sliced\n\n\n¼ pound thinly sliced lean pork\n\n\n1 teaspoon soy sauce\n\n\n½ teaspoon dark soy sauce\n\n\n½ teaspoon salt\n\n\n⅓ teaspoon sugar\n\n\n1 teaspoon sesame oil\n\n\n1  green onion, chopped\n\n\n1 tablespoon Chinese rice wine"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n½ inch piece fresh ginger root, thinly sliced\n\n\n¼ pound thinly sliced lean pork\n\n\n1 teaspoon soy sauce\n\n\n½ teaspoon dark soy sauce\n\n\n½ teaspoon salt\n\n\n⅓ teaspoon sugar\n\n\n1 teaspoon sesame oil\n\n\n1  green onion, chopped\n\n\n1 tablespoon Chinese rice wine'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet or wok over medium-high heat. Fry ginger in hot oil until fragrant, then add pork, soy sauce, dark soy sauce, salt, and sugar. Cook, stirring occasionally, for 10 minutes."},{"recipe_directions":"Stir in the sesame oil, green onion, and rice wine. Simmer until the pork is tender."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"322\nCalories\n\n\n30g \nFat\n\n\n2g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699641775-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lVaz2szuHpso3vHm3u1icUY9-8A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8303818-sweet-and-sour-pork-tenderloin-Erin-Marie-1x1-1-e4d8b626e18640d593c75fc664b20e40.jpg"
@@ -3258,59 +3411,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222342/sweet-and-sour-pork-tenderloin/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Sweet and Sour Pork Tenderloin</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 1/4 pound) pork tenderloin, trimmed of silver skin\n\n\n  salt and ground black pepper\n\n\n⅓ cup ketchup\n\n\n⅓ cup seasoned rice vinegar\n\n\n1 (8 ounce) can pineapple chunks, drained with juice reserved\n\n\n2 tablespoons brown sugar\n\n\n4 cloves garlic, minced\n\n\n2 teaspoons hot chili sauce (such as Sriracha®)\n\n\n1 teaspoon soy sauce\n\n\n1 pinch red pepper flakes\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon butter\n\n\n¼ cup chopped green onion (white part only)\n\n\n2 tablespoons chopped green onion tops"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 1/4 pound) pork tenderloin, trimmed of silver skin\n\n\n  salt and ground black pepper\n\n\n⅓ cup ketchup\n\n\n⅓ cup seasoned rice vinegar\n\n\n1 (8 ounce) can pineapple chunks, drained with juice reserved\n\n\n2 tablespoons brown sugar\n\n\n4 cloves garlic, minced\n\n\n2 teaspoons hot chili sauce (such as Sriracha®)\n\n\n1 teaspoon soy sauce\n\n\n1 pinch red pepper flakes\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon butter\n\n\n¼ cup chopped green onion (white part only)\n\n\n2 tablespoons chopped green onion tops'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut tenderloin into 4 pieces. Arrange in a single layer between two sheets of plastic wrap and pound with a meat mallet until each is about 1-inch thick. Generously season with salt and black pepper."},{"recipe_directions":"Whisk ketchup, rice vinegar, reserved pineapple juice, brown sugar, garlic, hot chili sauce, soy sauce, and red pepper flakes in a bowl. Set aside."},{"recipe_directions":"Heat vegetable oil in a skillet over high heat. Place pork in pan; reduce heat to medium. Cook until browned on both sides and cooked through, 5 to 6 minutes per side. Transfer to a plate."},{"recipe_directions":"Return skillet to medium heat. Stir butter into hot pan. When butter melts and starts to brown, stir in pineapple chunks. Cook, stirring, until pineapple is golden brown, 3 to 4 minutes."},{"recipe_directions":"Stir in ketchup mixture and 1/4 cup green onion (white parts). Reduce heat to low and simmer until garlic and onion have softened, 5 minutes."},{"recipe_directions":"Return pork to skillet; cook, stirring, until pork is heated through. Garnish with 2 tablespoons green onion tops."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"297\nCalories\n\n\n11g \nFat\n\n\n23g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699641779-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J1xU9MAFN1_ZO32MC6PXlME72GE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4525770-chinese-barbeque-pork-char-siu-Chef-John-1x1-1-e555eae3581c40d1b080679ff29a801c.jpg"
@@ -3324,59 +3473,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258494/chinese-barbeque-pork-char-siu/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Chinese Barbeque Pork (Char Siu)</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 5 hrs 10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup soy sauce\n\n\n½ cup honey\n\n\n½ cup Chinese rice wine (or sake or dry sherry)\n\n\n⅓ cup hoisin sauce\n\n\n⅓ cup ketchup\n\n\n⅓ cup brown sugar\n\n\n4 cloves garlic, crushed\n\n\n1 teaspoon Chinese five-spice powder\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n⅛ teaspoon pink curing salt (Optional)\n\n\n1 (3 pound) boneless pork butt (shoulder)\n\n\n1 teaspoon red food coloring, or as desired (Optional)\n\n\n1 teaspoon kosher salt, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup soy sauce\n\n\n½ cup honey\n\n\n½ cup Chinese rice wine (or sake or dry sherry)\n\n\n⅓ cup hoisin sauce\n\n\n⅓ cup ketchup\n\n\n⅓ cup brown sugar\n\n\n4 cloves garlic, crushed\n\n\n1 teaspoon Chinese five-spice powder\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ teaspoon cayenne pepper\n\n\n⅛ teaspoon pink curing salt (Optional)\n\n\n1 (3 pound) boneless pork butt (shoulder)\n\n\n1 teaspoon red food coloring, or as desired (Optional)\n\n\n1 teaspoon kosher salt, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place soy sauce, honey, rice wine, hoisin sauce, ketchup, brown sugar, garlic, five-spice powder, black pepper, cayenne pepper, and curing salt in a saucepan. Bring to a boil on high heat; reduce heat to medium-high. Cook for 1 minute. Remove from heat. Cool to room temperature."},{"recipe_directions":"Cut pork roast in half lengthwise. Cut each half again lengthwise forming 4 long, thick pieces of pork."},{"recipe_directions":"Transfer cooled sauce to a large mixing bowl. Stir in red food coloring. Place pork sections into sauce and coat each piece. Cover with plastic wrap and refrigerate 4 to 12 hours."},{"recipe_directions":"Preheat grill for medium heat, 275 to 300 degrees F (135 to 150 degrees C) and lightly oil the grate. Line a baking sheet with parchment paper."},{"recipe_directions":"Remove sections of pork from marinade and let excess drip off. Place on prepared baking sheet. Sprinkle with kosher salt to taste."},{"recipe_directions":"Transfer pork sections to grate over indirect heat on the prepared grill. Cover and cook for about 45 minutes. Brush with marinade; turn. Continue cooking until an instant-read thermometer inserted into the center reads at least 145 degrees F (63 degrees C), about 1 hour and 15 minutes more. Do not use any more marinade on cooked meat until after you boil it."},{"recipe_directions":"Place leftover marinade in a saucepan; bring to a boil; let simmer for 1 minute. Remove from heat. Now you can use it to brush over the cooked pork."},{"recipe_directions":"If you happen to be using your standard, backyard kettle-shaped grill, push all your coals to one side, and place your meat on the other. To add an extra layer of protection, you can also put it in a roasting pan, and place that on the grill. Or, forget the great outdoors, and simply roast it in the oven. The only catch is, you'll need to place it under the broiler at the end, to simulate the caramelization we get on the barbeque."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"513\nCalories\n\n\n22g \nFat\n\n\n49g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699641781-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dLLykyZP1fTZPh8ERL1qMu0y7mE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1049364-dab735471f0245f9a54958063655c22a.jpg"
@@ -3389,59 +3534,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231523/pork-lo-mein/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Pork Lo Mein</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package linguine\n\n\n⅓ cup low-sodium soy sauce\n\n\n2 tablespoons rice vinegar\n\n\n2 teaspoons cornstarch\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon sesame oil\n\n\n2 tablespoons canola oil\n\n\n2 cups snap peas\n\n\n1 small sweet onion, chopped\n\n\n1 (12 ounce) pork tenderloin, cut into thin strips\n\n\n1 (8 ounce) package sliced white mushrooms\n\n\n1 medium red bell pepper, chopped\n\n\n3 cloves garlic, chopped, divided\n\n\n½ teaspoon chopped fresh ginger, or to taste\n\n\n3  green onions, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package linguine\n\n\n⅓ cup low-sodium soy sauce\n\n\n2 tablespoons rice vinegar\n\n\n2 teaspoons cornstarch\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon sesame oil\n\n\n2 tablespoons canola oil\n\n\n2 cups snap peas\n\n\n1 small sweet onion, chopped\n\n\n1 (12 ounce) pork tenderloin, cut into thin strips\n\n\n1 (8 ounce) package sliced white mushrooms\n\n\n1 medium red bell pepper, chopped\n\n\n3 cloves garlic, chopped, divided\n\n\n½ teaspoon chopped fresh ginger, or to taste\n\n\n3  green onions, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil; cook the linguine at a boil until tender yet firm to the bite, 8 to 9 minutes; drain."},{"recipe_directions":"Meanwhile, whisk soy sauce, vinegar, cornstarch, sugar, and sesame oil together in a small bowl."},{"recipe_directions":"Heat canola oil in a large skillet over medium-high heat. Add snap peas and onion; cook and stir until onion is translucent, about 2 minutes. Add pork, mushrooms, red bell pepper, 1/3 of the garlic, and ginger; cook until pork is no longer pink, about 2 minutes."},{"recipe_directions":"Add remaining garlic to the skillet and cook until fragrant, about 1 minute. Pour in soy sauce mixture; cook and stir until sauce thickens, about 1 minute. Remove from the heat."},{"recipe_directions":"Stir linguine into the skillet until coated; sprinkle green onions over top."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"415\nCalories\n\n\n11g \nFat\n\n\n55g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699641784-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lvpRguiaTlTZdSufiS5jPP4k20E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/878724-shrimp-with-lobster-sauce-twoyorkiesmom-4x3-1-9b26e304e1e44840b9141037a6f22c2c.jpg"
@@ -3455,59 +3596,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57716/shrimp-with-lobster-sauce/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Shrimp with Lobster Sauce</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ teaspoons cornstarch\n\n\n2 teaspoons cooking sherry\n\n\n1 pound medium shrimp - peeled and deveined\n\n\n¼ cup vegetable oil\n\n\n2 cloves garlic, minced\n\n\n¼ pound ground pork\n\n\n1 cup water\n\n\n2 tablespoons soy sauce\n\n\n¼ teaspoon sugar\n\n\n½ teaspoon salt\n\n\n¼ cup cold water\n\n\n1 ½ tablespoons cornstarch\n\n\n1 large egg, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ teaspoons cornstarch\n\n\n2 teaspoons cooking sherry\n\n\n1 pound medium shrimp - peeled and deveined\n\n\n¼ cup vegetable oil\n\n\n2 cloves garlic, minced\n\n\n¼ pound ground pork\n\n\n1 cup water\n\n\n2 tablespoons soy sauce\n\n\n¼ teaspoon sugar\n\n\n½ teaspoon salt\n\n\n¼ cup cold water\n\n\n1 ½ tablespoons cornstarch\n\n\n1 large egg, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve 1 1/2 teaspoons cornstarch in sherry in a medium bowl. Add shrimp and toss to coat."},{"recipe_directions":"Heat oil in a wok over medium-high heat. Add shrimp and stir-fry until pink, 3 to 5 minutes. Use a slotted spoon to transfer shrimp to a plate; leave as much oil in the wok as possible."},{"recipe_directions":"Add garlic to the wok and stir-fry for a few seconds, then add ground pork. Stir-fry until pork is no longer pink, 3 to 5 minutes."},{"recipe_directions":"Mix 1 cup water, soy sauce, sugar, and salt together in a small bowl; pour into the wok and stir to combine. Bring to a boil, then cover, reduce the heat to medium, and simmer for about 2 minutes."},{"recipe_directions":"Whisk 1/4 cup cold water and 1 1/2 tablespoons cornstarch together in a small bowl; pour into the wok. Add shrimp and bring to a simmer. Drizzle beaten egg into the wok, stirring quickly as it cooks. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"308\nCalories\n\n\n20g \nFat\n\n\n5g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699641787-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CTiwVikKGLS0l_VQFvP2xv-xbyc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5256168-dc352e6a1e234e7bb2e391f02f11ffb1.jpg"
@@ -3520,59 +3657,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13199/wonton-soup/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Wonton Soup</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound boneless pork loin, coarsely chopped\n\n\n2 ounces peeled shrimp, finely chopped\n\n\n1 tablespoon Chinese rice wine\n\n\n1 tablespoon light soy sauce\n\n\n1 teaspoon brown sugar\n\n\n1 teaspoon finely chopped green onions\n\n\n1 teaspoon chopped fresh ginger root\n\n\n24  (3.5 inch square) wonton wrappers"},{"recipe_ingredients":"3 cups chicken stock\n\n\n2 tablespoons finely chopped green onions"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound boneless pork loin, coarsely chopped\n\n\n2 ounces peeled shrimp, finely chopped\n\n\n1 tablespoon Chinese rice wine\n\n\n1 tablespoon light soy sauce\n\n\n1 teaspoon brown sugar\n\n\n1 teaspoon finely chopped green onions\n\n\n1 teaspoon chopped fresh ginger root\n\n\n24  (3.5 inch square) wonton wrappers'}, {'recipe_ingredients': '3 cups chicken stock\n\n\n2 tablespoons finely chopped green onions'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the wontons: Mix pork, shrimp, rice wine, soy sauce, brown sugar, green onions, and ginger together in a large bowl until well combined. Let stand for 25 to 30 minutes."},{"recipe_directions":"Spoon about 1 teaspoon filling onto the center of a wonton wrapper. Moisten all four wrapper edges with water and fold over filling to make a triangle; press the edges firmly to seal. Bring left and right corners together above filling; overlap the tips of these corners, moisten with water, and press together to seal. Repeat until all wrappers have been filled and sealed."},{"recipe_directions":"Make the soup: Bring chicken stock to a rolling boil in a pot. Gently drop in wontons and cook for 5 minutes."},{"recipe_directions":"Ladle into bowls and garnish with green onions."},{"recipe_directions":"Heat 2 to 3 cups oil in a wok until hot. Deep-fry wontons in batches in hot oil until golden, 2 to 3 minutes per side. Drain on a paper towel-lined plate. Serve with duck sauce (plum sauce) or any dipping sauce."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n6g \nFat\n\n\n21g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699641790-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1901/world-cuisine/asian/chinese/main-dishes/pork/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JTF1hjpEdM4OzNZhx20xJ8CfVGc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/868083-afc9073b34544c70ade58434e2d79575.jpg"
@@ -3585,42 +3718,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/77408/chinese-spareribs/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Chinese Spareribs</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 45 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons hoisin sauce\n\n\n1 tablespoon ketchup\n\n\n1 tablespoon honey\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon sake\n\n\n1 teaspoon rice vinegar\n\n\n1 teaspoon lemon juice\n\n\n1 teaspoon grated fresh ginger \n\n\n½ teaspoon grated fresh garlic\n\n\n¼ teaspoon Chinese five-spice powder\n\n\n1 pound pork spareribs"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons hoisin sauce\n\n\n1 tablespoon ketchup\n\n\n1 tablespoon honey\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon sake\n\n\n1 teaspoon rice vinegar\n\n\n1 teaspoon lemon juice\n\n\n1 teaspoon grated fresh ginger \n\n\n½ teaspoon grated fresh garlic\n\n\n¼ teaspoon Chinese five-spice powder\n\n\n1 pound pork spareribs'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together hoisin sauce, ketchup, honey, soy sauce, sake, rice vinegar, lemon juice, ginger, garlic, and five-spice powder in a shallow glass dish. Place ribs in the dish and turn to coat. Cover and marinate in the refrigerator for 2 hours or up to overnight."},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Fill a broiler tray with enough water to cover the bottom. Place the grate or a rack over the tray; arrange ribs on the grate."},{"recipe_directions":"Cook in the preheated oven on the center rack for 40 minutes, turning and brushing with marinade every 10 minutes. Let marinade cook on for final 10 minutes to make a glaze. Finish under the broiler if desired. Discard any remaining marinade."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"503\nCalories\n\n\n31g \nFat\n\n\n23g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>